--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3433570.516972867</v>
+        <v>3440509.088912011</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10742324.90338219</v>
+        <v>10429497.39806896</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>881595.6018153765</v>
+        <v>693463.6060443785</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7522462.552633021</v>
+        <v>7614193.418760961</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1370,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>47.13459721319809</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958322</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,13 +1430,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>195.2590144254309</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>320.4637138270162</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>99.6113842357931</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>319.6602422357975</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231188</v>
+        <v>344.6059179052471</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348608</v>
+        <v>348.6515978169891</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687278</v>
+        <v>232.3376365508561</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>46.91763395171151</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>141.6478423031558</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>188.7250441224377</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>265.4821306336706</v>
       </c>
       <c r="W14" t="n">
-        <v>15.50715559656835</v>
+        <v>286.9708408809487</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598764</v>
+        <v>307.4609728420047</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>323.9678108195893</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633447</v>
+        <v>117.561852345473</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>104.9766932621635</v>
       </c>
       <c r="D16" t="n">
-        <v>101.6403363996198</v>
+        <v>86.34534518174803</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>84.16383481010485</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>83.15092018646692</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>103.7556804225639</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>82.48488707785646</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124551</v>
+        <v>34.08229257337377</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145474</v>
+        <v>26.662024833583</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>127.4988974949776</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575766</v>
+        <v>157.2788214397049</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870203</v>
+        <v>223.9417103691485</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052354</v>
+        <v>189.8675154873637</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179984</v>
+        <v>224.2528705001267</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704446</v>
+        <v>163.4395275525728</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335022</v>
+        <v>156.3145255156305</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>320.4637138270162</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>303.0027639345432</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020903</v>
+        <v>292.4129137842186</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>319.6602422357975</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231188</v>
+        <v>344.6059179052471</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348608</v>
+        <v>348.6515978169891</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687278</v>
+        <v>232.3376365508561</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>46.91763395171148</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>141.6478423031558</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>224.8150161962225</v>
       </c>
       <c r="W17" t="n">
-        <v>296.2842774481106</v>
+        <v>286.9708408809487</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598764</v>
+        <v>307.4609728420047</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>323.9678108195893</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8568435633447</v>
+        <v>117.561852345473</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800352</v>
+        <v>104.9766932621635</v>
       </c>
       <c r="D19" t="n">
-        <v>101.6403363996198</v>
+        <v>86.34534518174803</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797658</v>
+        <v>84.16383481010485</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433866</v>
+        <v>83.15092018646692</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404356</v>
+        <v>103.7556804225639</v>
       </c>
       <c r="H19" t="n">
-        <v>97.7798782957282</v>
+        <v>82.48488707785646</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124551</v>
+        <v>34.08229257337376</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145474</v>
+        <v>26.66202483358299</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128493</v>
+        <v>127.4988974949776</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5738126575766</v>
+        <v>157.2788214397049</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870203</v>
+        <v>223.9417103691485</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1625067052354</v>
+        <v>189.8675154873637</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5478617179984</v>
+        <v>224.2528705001267</v>
       </c>
       <c r="X19" t="n">
-        <v>178.7345187704446</v>
+        <v>163.4395275525728</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6095167335022</v>
+        <v>156.3145255156305</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.758705044888</v>
+        <v>320.4637138270162</v>
       </c>
       <c r="C20" t="n">
-        <v>318.297755152415</v>
+        <v>303.0027639345432</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020903</v>
+        <v>292.4129137842186</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>319.6602422357975</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231188</v>
+        <v>344.6059179052471</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348608</v>
+        <v>348.6515978169891</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687278</v>
+        <v>232.3376365508561</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>46.91763395171148</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>141.6478423031558</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>188.7250441224377</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>265.4821306336706</v>
       </c>
       <c r="W20" t="n">
-        <v>296.2842774481106</v>
+        <v>286.9708408809487</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598764</v>
+        <v>78.06881428211912</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.262802037461</v>
+        <v>323.9678108195893</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8568435633447</v>
+        <v>117.561852345473</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800352</v>
+        <v>104.9766932621635</v>
       </c>
       <c r="D22" t="n">
-        <v>101.6403363996198</v>
+        <v>86.34534518174803</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797658</v>
+        <v>84.16383481010485</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433866</v>
+        <v>83.15092018646692</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404356</v>
+        <v>103.7556804225639</v>
       </c>
       <c r="H22" t="n">
-        <v>97.7798782957282</v>
+        <v>82.48488707785646</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124551</v>
+        <v>34.08229257337376</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145474</v>
+        <v>26.66202483358299</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128493</v>
+        <v>127.4988974949776</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5738126575766</v>
+        <v>157.2788214397049</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870203</v>
+        <v>223.9417103691485</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1625067052354</v>
+        <v>189.8675154873637</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5478617179984</v>
+        <v>224.2528705001267</v>
       </c>
       <c r="X22" t="n">
-        <v>178.7345187704446</v>
+        <v>163.4395275525728</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6095167335022</v>
+        <v>156.3145255156305</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.758705044888</v>
+        <v>320.4637138270162</v>
       </c>
       <c r="C23" t="n">
-        <v>318.297755152415</v>
+        <v>303.0027639345432</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020903</v>
+        <v>292.4129137842186</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536692</v>
+        <v>319.6602422357975</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231188</v>
+        <v>344.6059179052471</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348608</v>
+        <v>348.6515978169891</v>
       </c>
       <c r="H23" t="n">
-        <v>247.6326277687279</v>
+        <v>232.3376365508561</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958325</v>
+        <v>46.91763395171149</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210276</v>
+        <v>141.6478423031558</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403093</v>
+        <v>188.7250441224373</v>
       </c>
       <c r="V23" t="n">
-        <v>280.7771218515423</v>
+        <v>265.4821306336706</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988204</v>
+        <v>286.9708408809487</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598764</v>
+        <v>307.4609728420047</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.262802037461</v>
+        <v>323.9678108195893</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633447</v>
+        <v>117.561852345473</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800352</v>
+        <v>104.9766932621635</v>
       </c>
       <c r="D25" t="n">
-        <v>101.6403363996198</v>
+        <v>86.34534518174803</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797658</v>
+        <v>84.16383481010485</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433866</v>
+        <v>83.15092018646692</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404356</v>
+        <v>103.7556804225639</v>
       </c>
       <c r="H25" t="n">
-        <v>97.7798782957282</v>
+        <v>82.48488707785646</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124551</v>
+        <v>34.08229257337376</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145474</v>
+        <v>26.66202483358299</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128493</v>
+        <v>127.4988974949776</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575766</v>
+        <v>157.2788214397049</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870203</v>
+        <v>223.9417103691485</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052354</v>
+        <v>189.8675154873637</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179984</v>
+        <v>224.2528705001267</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704446</v>
+        <v>163.4395275525728</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335022</v>
+        <v>156.3145255156305</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515423</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403102</v>
+        <v>204.0200353403084</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>288.7835684262954</v>
+        <v>304.0785596441672</v>
       </c>
       <c r="C35" t="n">
-        <v>271.3226185338224</v>
+        <v>286.6176097516941</v>
       </c>
       <c r="D35" t="n">
-        <v>260.7327683834978</v>
+        <v>276.0277596013696</v>
       </c>
       <c r="E35" t="n">
-        <v>287.9800968350766</v>
+        <v>303.2750880529484</v>
       </c>
       <c r="F35" t="n">
-        <v>312.9257725045263</v>
+        <v>328.220763722398</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9714524162683</v>
+        <v>332.26644363414</v>
       </c>
       <c r="H35" t="n">
-        <v>148.3752332772591</v>
+        <v>215.9524823680071</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.23748855099066</v>
+        <v>30.5324797688629</v>
       </c>
       <c r="T35" t="n">
-        <v>109.967696902435</v>
+        <v>125.2626881203067</v>
       </c>
       <c r="U35" t="n">
-        <v>157.0448987217168</v>
+        <v>172.3398899395886</v>
       </c>
       <c r="V35" t="n">
-        <v>233.8019852329497</v>
+        <v>249.0969764508215</v>
       </c>
       <c r="W35" t="n">
-        <v>255.2906954802278</v>
+        <v>270.5856866980996</v>
       </c>
       <c r="X35" t="n">
-        <v>275.7808274412839</v>
+        <v>291.0758186591556</v>
       </c>
       <c r="Y35" t="n">
-        <v>292.2876654188684</v>
+        <v>307.5826566367402</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>88.34202812729535</v>
+        <v>101.1766981626239</v>
       </c>
       <c r="C37" t="n">
-        <v>73.29654786144266</v>
+        <v>88.59153907931443</v>
       </c>
       <c r="D37" t="n">
-        <v>54.66519978102718</v>
+        <v>69.96019099889895</v>
       </c>
       <c r="E37" t="n">
-        <v>52.483689409384</v>
+        <v>67.77868062725577</v>
       </c>
       <c r="F37" t="n">
-        <v>51.47077478574607</v>
+        <v>66.76576600361784</v>
       </c>
       <c r="G37" t="n">
-        <v>72.07553502184305</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>50.80474167713561</v>
+        <v>126.0041260881677</v>
       </c>
       <c r="I37" t="n">
-        <v>2.402147172652924</v>
+        <v>17.69713839052469</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>10.27687065073393</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>111.1137433121285</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>140.8936672568558</v>
       </c>
       <c r="U37" t="n">
-        <v>192.2615649684277</v>
+        <v>207.5565561862994</v>
       </c>
       <c r="V37" t="n">
-        <v>158.1873700866428</v>
+        <v>173.4823613045146</v>
       </c>
       <c r="W37" t="n">
-        <v>192.5727250994058</v>
+        <v>207.8677163172776</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>147.0543733697237</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>139.9293713327814</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>288.7835684262954</v>
+        <v>304.0785596441672</v>
       </c>
       <c r="C38" t="n">
-        <v>234.2778492119366</v>
+        <v>286.6176097516941</v>
       </c>
       <c r="D38" t="n">
-        <v>260.7327683834978</v>
+        <v>276.0277596013696</v>
       </c>
       <c r="E38" t="n">
-        <v>287.9800968350766</v>
+        <v>303.2750880529484</v>
       </c>
       <c r="F38" t="n">
-        <v>312.9257725045263</v>
+        <v>328.220763722398</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9714524162683</v>
+        <v>332.26644363414</v>
       </c>
       <c r="H38" t="n">
-        <v>200.6574911501353</v>
+        <v>215.9524823680071</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>30.5324797688629</v>
       </c>
       <c r="T38" t="n">
-        <v>109.967696902435</v>
+        <v>125.2626881203067</v>
       </c>
       <c r="U38" t="n">
-        <v>157.0448987217168</v>
+        <v>172.339889939588</v>
       </c>
       <c r="V38" t="n">
-        <v>233.8019852329497</v>
+        <v>249.0969764508215</v>
       </c>
       <c r="W38" t="n">
-        <v>255.2906954802278</v>
+        <v>270.5856866980996</v>
       </c>
       <c r="X38" t="n">
-        <v>275.7808274412839</v>
+        <v>291.0758186591556</v>
       </c>
       <c r="Y38" t="n">
-        <v>292.2876654188684</v>
+        <v>307.5826566367402</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.88170694475212</v>
+        <v>101.1766981626239</v>
       </c>
       <c r="C40" t="n">
-        <v>73.29654786144266</v>
+        <v>88.59153907931443</v>
       </c>
       <c r="D40" t="n">
-        <v>54.66519978102718</v>
+        <v>69.96019099889895</v>
       </c>
       <c r="E40" t="n">
-        <v>54.9440105919271</v>
+        <v>67.77868062725577</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>66.76576600361784</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>87.37052623971482</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>66.09973289500738</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>77.60153158368489</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>95.81875209425672</v>
+        <v>111.1137433121285</v>
       </c>
       <c r="T40" t="n">
-        <v>125.598676038984</v>
+        <v>140.8936672568558</v>
       </c>
       <c r="U40" t="n">
-        <v>192.2615649684277</v>
+        <v>207.5565561862994</v>
       </c>
       <c r="V40" t="n">
-        <v>158.1873700866428</v>
+        <v>173.4823613045146</v>
       </c>
       <c r="W40" t="n">
-        <v>192.5727250994058</v>
+        <v>207.8677163172776</v>
       </c>
       <c r="X40" t="n">
-        <v>131.759382151852</v>
+        <v>147.0543733697237</v>
       </c>
       <c r="Y40" t="n">
-        <v>124.6343801149096</v>
+        <v>139.9293713327814</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3749,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>10.92960745128289</v>
       </c>
       <c r="V41" t="n">
-        <v>241.6510731180183</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988204</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124548</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128487</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870213</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3961,7 +3961,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
         <v>171.6095167335022</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.758705044888</v>
+        <v>351.0536962627597</v>
       </c>
       <c r="C44" t="n">
-        <v>318.2977551524149</v>
+        <v>41.80111365403737</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>323.0028962199621</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>350.2502246715409</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>375.1959003409905</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.896784372205076</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>77.50761638745496</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>172.2378247388993</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>219.3150265581811</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>296.0721130694141</v>
       </c>
       <c r="W44" t="n">
-        <v>296.2842774481111</v>
+        <v>317.5608233166921</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>338.0509552777481</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.2628020374609</v>
+        <v>354.5577932553327</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>148.1518347812164</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>135.566675697907</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996197</v>
+        <v>116.9353276174915</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797653</v>
+        <v>114.7538172458483</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140434078</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>98.78262605352991</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572814</v>
+        <v>113.0748695135999</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124545</v>
+        <v>64.67227500911721</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145469</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>187.8688038754483</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870202</v>
+        <v>254.531692804892</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>220.4574979231071</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>254.8428529358701</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704445</v>
+        <v>194.0295099883163</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335021</v>
+        <v>186.9045079513739</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1446.825890789496</v>
+        <v>1364.208554989044</v>
       </c>
       <c r="C11" t="n">
-        <v>1446.825890789496</v>
+        <v>1042.695670996706</v>
       </c>
       <c r="D11" t="n">
-        <v>1136.009825130819</v>
+        <v>731.8796053380288</v>
       </c>
       <c r="E11" t="n">
-        <v>797.6712054806478</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F11" t="n">
-        <v>434.1349336391136</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,7 +5039,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3167.077706941466</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2960.996863163376</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243047</v>
+        <v>2677.383608767879</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921006</v>
+        <v>2372.064586445838</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.207425608</v>
+        <v>2046.048461132831</v>
       </c>
       <c r="Y11" t="n">
-        <v>1785.976097905544</v>
+        <v>1703.358762105093</v>
       </c>
     </row>
     <row r="12">
@@ -5118,13 +5118,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268786</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
         <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337116</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5215,7 +5215,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5230,19 +5230,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1424.96340809348</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232655</v>
+        <v>1324.345848259345</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>1324.345848259345</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>1001.456714687832</v>
       </c>
       <c r="F14" t="n">
-        <v>684.268901082273</v>
+        <v>653.3699289249564</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>301.1965977966846</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,7 +5288,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5297,31 +5297,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3278.214272162998</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3135.135643573952</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2944.50428587452</v>
       </c>
       <c r="V14" t="n">
-        <v>3041.992567213674</v>
+        <v>2676.340517557681</v>
       </c>
       <c r="W14" t="n">
-        <v>3026.328773681787</v>
+        <v>2386.470981314298</v>
       </c>
       <c r="X14" t="n">
-        <v>2700.31264836878</v>
+        <v>2075.90434207995</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341042</v>
+        <v>1748.66412913087</v>
       </c>
     </row>
     <row r="15">
@@ -5346,16 +5346,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>651.3198472546859</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>545.2827833535106</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>458.0652629679065</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268784</v>
+        <v>373.0512884122451</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>289.0604599410664</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>184.256742342517</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>100.9386745871064</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315257</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328087</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843938</v>
+        <v>1319.303604226424</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016758</v>
+        <v>1680.280629704937</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>1974.535556696696</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2052.145852849211</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2025.214514633471</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>1896.427749487029</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1737.560253083287</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1511.356505235662</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.515482921749</v>
+        <v>1319.571136056507</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1093.053085046278</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>927.9626531749924</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>770.0691930581939</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2018.472742224994</v>
+        <v>1931.267727112002</v>
       </c>
       <c r="C17" t="n">
-        <v>1696.959858232655</v>
+        <v>1625.204329198322</v>
       </c>
       <c r="D17" t="n">
-        <v>1386.143792573978</v>
+        <v>1329.837749618303</v>
       </c>
       <c r="E17" t="n">
-        <v>1047.805172923807</v>
+        <v>1006.948616046791</v>
       </c>
       <c r="F17" t="n">
-        <v>684.268901082273</v>
+        <v>658.861830283915</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>306.6884991556432</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>72.00401779114205</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>72.00401779114205</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>260.8831487501676</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>594.7025224400143</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1045.736735688423</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1579.268640360348</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2126.04745741913</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2687.931254134133</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3082.705620491311</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3541.1838230003</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3600.200889557102</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3552.809340110929</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3409.730711521883</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3409.730711521883</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>3182.644836576203</v>
       </c>
       <c r="W17" t="n">
-        <v>3026.328773681787</v>
+        <v>2892.775300332821</v>
       </c>
       <c r="X17" t="n">
-        <v>2700.31264836878</v>
+        <v>2582.208661098472</v>
       </c>
       <c r="Y17" t="n">
-        <v>2357.622949341042</v>
+        <v>2254.968448149392</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>947.0357558400673</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>772.5827265589403</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>623.648316897689</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>464.4108618922335</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>317.8763039191184</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>181.5132037517365</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>91.01130938960407</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>72.00401779114205</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>165.6812872817594</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>403.9454862621067</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>770.6436465747722</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1217.919971797088</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1691.443015351543</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2102.404294769598</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2412.903886245701</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2570.545443892301</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2570.401090484815</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2440.963203978295</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2248.320203656151</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2020.252356790566</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1785.100248558824</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1530.862891830622</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1323.011391625089</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1115.251092860135</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052942</v>
+        <v>656.8117486136446</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254606</v>
+        <v>550.7746847124693</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611982</v>
+        <v>463.5571643268652</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268784</v>
+        <v>378.5431897712037</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770414</v>
+        <v>294.552361300025</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998336</v>
+        <v>189.7486437014756</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657647</v>
+        <v>106.430575946065</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>72.00401779114205</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315257</v>
+        <v>117.1266502380776</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328087</v>
+        <v>321.1138331869541</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337115</v>
+        <v>637.6736316354503</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885667</v>
+        <v>981.8306772349994</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843938</v>
+        <v>1324.795505585383</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016757</v>
+        <v>1624.125104505797</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702823</v>
+        <v>1918.380031497556</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107745</v>
+        <v>2057.63775420817</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813346</v>
+        <v>2030.70641599243</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588246</v>
+        <v>1901.919650845988</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105845</v>
+        <v>1743.052154442246</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179562</v>
+        <v>1516.848406594621</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.515482921749</v>
+        <v>1325.063037415466</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832861</v>
+        <v>1098.544986405237</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882917</v>
+        <v>933.4545545339511</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874605</v>
+        <v>775.5610944171526</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2018.472742224994</v>
+        <v>1931.267727112002</v>
       </c>
       <c r="C20" t="n">
-        <v>1696.959858232655</v>
+        <v>1625.204329198322</v>
       </c>
       <c r="D20" t="n">
-        <v>1386.143792573978</v>
+        <v>1329.837749618303</v>
       </c>
       <c r="E20" t="n">
-        <v>1047.805172923807</v>
+        <v>1006.948616046791</v>
       </c>
       <c r="F20" t="n">
-        <v>684.268901082273</v>
+        <v>658.861830283915</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6460838753429</v>
+        <v>306.6884991556432</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>72.00401779114205</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>72.00401779114205</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>260.8831487501676</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>594.7025224400143</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1045.736735688423</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1579.268640360348</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2126.04745741913</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2629.019928298468</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3227.838205570365</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3476.124567326047</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3600.200889557102</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3552.809340110929</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3409.730711521883</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>3219.099353822451</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2950.935585505612</v>
       </c>
       <c r="W20" t="n">
-        <v>3026.328773681787</v>
+        <v>2661.066049262229</v>
       </c>
       <c r="X20" t="n">
-        <v>2700.31264836878</v>
+        <v>2582.208661098472</v>
       </c>
       <c r="Y20" t="n">
-        <v>2357.622949341042</v>
+        <v>2254.968448149392</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>947.0357558400673</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>772.5827265589403</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>623.648316897689</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>464.4108618922335</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>317.8763039191184</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>181.5132037517365</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>91.01130938960407</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>72.00401779114205</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>165.6812872817594</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>403.9454862621067</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>770.6436465747722</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1217.919971797088</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1691.443015351543</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2102.404294769598</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2412.903886245701</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2570.545443892301</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2570.401090484815</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2440.963203978295</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2248.320203656151</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2020.252356790566</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1785.100248558824</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1530.862891830622</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1323.011391625089</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1115.251092860135</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1785.73444130672</v>
+        <v>656.8117486136446</v>
       </c>
       <c r="C22" t="n">
-        <v>1664.247891326886</v>
+        <v>550.7746847124693</v>
       </c>
       <c r="D22" t="n">
-        <v>1561.580884862624</v>
+        <v>463.5571643268652</v>
       </c>
       <c r="E22" t="n">
-        <v>1461.117424228304</v>
+        <v>378.5431897712037</v>
       </c>
       <c r="F22" t="n">
-        <v>1361.677109678467</v>
+        <v>294.552361300025</v>
       </c>
       <c r="G22" t="n">
-        <v>1241.42390600126</v>
+        <v>189.7486437014756</v>
       </c>
       <c r="H22" t="n">
-        <v>1142.656352167191</v>
+        <v>106.430575946065</v>
       </c>
       <c r="I22" t="n">
-        <v>1092.780307933609</v>
+        <v>72.00401779114205</v>
       </c>
       <c r="J22" t="n">
-        <v>1184.408325632952</v>
+        <v>117.1266502380776</v>
       </c>
       <c r="K22" t="n">
-        <v>1434.900893834235</v>
+        <v>321.1138331869541</v>
       </c>
       <c r="L22" t="n">
-        <v>1797.966077535137</v>
+        <v>639.2300832799692</v>
       </c>
       <c r="M22" t="n">
-        <v>2188.628508387093</v>
+        <v>1045.034555437618</v>
       </c>
       <c r="N22" t="n">
-        <v>2576.542270345364</v>
+        <v>1386.442932143483</v>
       </c>
       <c r="O22" t="n">
-        <v>2922.377254518184</v>
+        <v>1685.772531063896</v>
       </c>
       <c r="P22" t="n">
-        <v>3201.49014020425</v>
+        <v>1918.380031497556</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>2057.63775420817</v>
       </c>
       <c r="R22" t="n">
-        <v>3283.224997314772</v>
+        <v>2030.70641599243</v>
       </c>
       <c r="S22" t="n">
-        <v>3138.988746089672</v>
+        <v>1901.919650845988</v>
       </c>
       <c r="T22" t="n">
-        <v>2964.671763607271</v>
+        <v>1743.052154442246</v>
       </c>
       <c r="U22" t="n">
-        <v>2723.018529680988</v>
+        <v>1516.848406594621</v>
       </c>
       <c r="V22" t="n">
-        <v>2515.783674423174</v>
+        <v>1325.063037415466</v>
       </c>
       <c r="W22" t="n">
-        <v>2273.816137334287</v>
+        <v>1098.544986405237</v>
       </c>
       <c r="X22" t="n">
-        <v>2093.276219384343</v>
+        <v>933.4545545339511</v>
       </c>
       <c r="Y22" t="n">
-        <v>1919.933273188886</v>
+        <v>775.5610944171526</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689499</v>
+        <v>1935.996487337933</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.59465869716</v>
+        <v>1629.933089424253</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038483</v>
+        <v>1334.566509844234</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388313</v>
+        <v>1011.677376272721</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467787</v>
+        <v>663.5905905098456</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398486</v>
+        <v>311.4172593815736</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668915</v>
+        <v>76.73277801707248</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668915</v>
+        <v>76.73277801707248</v>
       </c>
       <c r="J23" t="n">
-        <v>282.5873354070219</v>
+        <v>265.6119089760981</v>
       </c>
       <c r="K23" t="n">
-        <v>937.3106675423214</v>
+        <v>920.3352411113976</v>
       </c>
       <c r="L23" t="n">
-        <v>1388.34488079073</v>
+        <v>1371.369454359807</v>
       </c>
       <c r="M23" t="n">
-        <v>1921.876785462655</v>
+        <v>1904.901359031731</v>
       </c>
       <c r="N23" t="n">
-        <v>2468.655602521437</v>
+        <v>2451.680176090514</v>
       </c>
       <c r="O23" t="n">
-        <v>2971.628073400774</v>
+        <v>3134.561106183961</v>
       </c>
       <c r="P23" t="n">
-        <v>3684.98316084772</v>
+        <v>3529.335472541139</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603402</v>
+        <v>3777.621834296821</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834457</v>
+        <v>3836.638900853624</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309626</v>
+        <v>3789.247351407451</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641921</v>
+        <v>3646.168722818405</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863831</v>
+        <v>3455.537365118973</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468333</v>
+        <v>3187.373596802134</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146292</v>
+        <v>2897.504060558751</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833285</v>
+        <v>2586.937421324403</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805547</v>
+        <v>2259.697208375323</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456143</v>
+        <v>951.7645160659972</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644873</v>
+        <v>777.3114867848702</v>
       </c>
       <c r="D24" t="n">
-        <v>632.7912160032361</v>
+        <v>628.3770771236191</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977806</v>
+        <v>469.1396221181635</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0192030246656</v>
+        <v>322.6050641450486</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572837</v>
+        <v>186.2419639776674</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951512</v>
+        <v>95.74006961553488</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668915</v>
+        <v>76.73277801707248</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873065</v>
+        <v>170.4100475076896</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676536</v>
+        <v>408.674246488037</v>
       </c>
       <c r="L24" t="n">
-        <v>779.786545680319</v>
+        <v>775.372406800702</v>
       </c>
       <c r="M24" t="n">
-        <v>1227.062870902635</v>
+        <v>1222.648732023018</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.58591445709</v>
+        <v>1696.171775577472</v>
       </c>
       <c r="O24" t="n">
-        <v>2111.547193875144</v>
+        <v>2107.133054995527</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351247</v>
+        <v>2417.63264647163</v>
       </c>
       <c r="Q24" t="n">
-        <v>2579.688342997847</v>
+        <v>2575.27420411823</v>
       </c>
       <c r="R24" t="n">
-        <v>2579.543989590362</v>
+        <v>2575.129850710745</v>
       </c>
       <c r="S24" t="n">
-        <v>2450.106103083842</v>
+        <v>2445.691964204225</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.463102761698</v>
+        <v>2253.048963882081</v>
       </c>
       <c r="U24" t="n">
-        <v>2029.395255896113</v>
+        <v>2024.981117016496</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.243147664371</v>
+        <v>1789.829008784754</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.005790936169</v>
+        <v>1535.591652056552</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.154290730636</v>
+        <v>1327.740151851019</v>
       </c>
       <c r="Y24" t="n">
-        <v>1124.393991965682</v>
+        <v>1119.979853086065</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502697999</v>
+        <v>661.540508839575</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899663</v>
+        <v>555.5034449383996</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257039</v>
+        <v>468.2859245527956</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913841</v>
+        <v>383.2719499971341</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415471</v>
+        <v>299.2811215259554</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643394</v>
+        <v>194.477403927406</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302705</v>
+        <v>111.1593361719955</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668915</v>
+        <v>76.73277801707248</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960314</v>
+        <v>121.8554104640081</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973144</v>
+        <v>325.8425934128845</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982172</v>
+        <v>642.4023918613807</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350173</v>
+        <v>988.1158891054486</v>
       </c>
       <c r="N25" t="n">
-        <v>1564.908879308444</v>
+        <v>1329.524265811313</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481264</v>
+        <v>1628.853864731727</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.85674916733</v>
+        <v>1923.108791723486</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572251</v>
+        <v>2062.3665144341</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277852</v>
+        <v>2035.43517621836</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052752</v>
+        <v>1906.648411071918</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570351</v>
+        <v>1747.780914668176</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644068</v>
+        <v>1521.577166820551</v>
       </c>
       <c r="V25" t="n">
-        <v>1504.150283386255</v>
+        <v>1329.791797641396</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.182746297367</v>
+        <v>1103.273746631167</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347423</v>
+        <v>938.1833147598815</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519662</v>
+        <v>780.289854643083</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398486</v>
@@ -6224,25 +6224,25 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>792.1780824632688</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1243.212295711678</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1776.744200383602</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2323.523017442385</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>2826.495488321721</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277656</v>
@@ -6254,22 +6254,22 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668916</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6440,7 +6440,7 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,7 +6449,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6467,22 +6467,22 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1468.364237198916</v>
+        <v>1326.966459396847</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.89614187084</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N29" t="n">
-        <v>2548.674958929623</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3051.64742980896</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6555,25 +6555,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
         <v>1794.243147664371</v>
@@ -6582,10 +6582,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
         <v>549.9474938257041</v>
@@ -6607,10 +6607,10 @@
         <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6625,7 +6625,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6652,19 +6652,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519667</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,16 +6686,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
@@ -6707,28 +6707,28 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1872.543307058812</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2517.474464532008</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>2395.987914552174</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>2293.320908087911</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>2192.857447453592</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F34" t="n">
-        <v>2093.417132903754</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>1973.163929226547</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
-        <v>1874.396375392478</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>1824.520331158897</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>1916.148348858239</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>2166.640917059522</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>2529.706100760425</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>2920.368531612381</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>3308.282293570652</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>3654.117277743472</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>3933.230163429538</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>4057.345844834459</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>4014.96502054006</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>3870.72876931496</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>3696.411786832559</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>3454.758552906276</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>3247.523697648463</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>3005.556160559575</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>2825.016242609631</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>2651.673296414174</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1680.9645830488</v>
+        <v>1831.963762367463</v>
       </c>
       <c r="C35" t="n">
-        <v>1406.901332004535</v>
+        <v>1542.451025244539</v>
       </c>
       <c r="D35" t="n">
-        <v>1143.534899293931</v>
+        <v>1263.635106455277</v>
       </c>
       <c r="E35" t="n">
-        <v>852.6459125918336</v>
+        <v>957.296633674521</v>
       </c>
       <c r="F35" t="n">
-        <v>536.5592736983727</v>
+        <v>625.7605087024017</v>
       </c>
       <c r="G35" t="n">
-        <v>216.3860894395159</v>
+        <v>290.1378383648865</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>72.00401779114202</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>72.00401779114202</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>428.2887977705205</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>762.108171460367</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1213.142384708776</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1746.6742893807</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2293.453106439483</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2796.42557731882</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3191.199943675998</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3476.124567326046</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3600.200889557101</v>
       </c>
       <c r="S35" t="n">
-        <v>3310.214419032413</v>
+        <v>3569.360000901684</v>
       </c>
       <c r="T35" t="n">
-        <v>3199.135937312782</v>
+        <v>3442.832033103394</v>
       </c>
       <c r="U35" t="n">
-        <v>3040.504726482765</v>
+        <v>3268.751336194719</v>
       </c>
       <c r="V35" t="n">
-        <v>2804.341105035341</v>
+        <v>3017.138228668637</v>
       </c>
       <c r="W35" t="n">
-        <v>2546.471715661374</v>
+        <v>2743.819353216011</v>
       </c>
       <c r="X35" t="n">
-        <v>2267.90522329644</v>
+        <v>2449.803374772419</v>
       </c>
       <c r="Y35" t="n">
-        <v>1972.665157216775</v>
+        <v>2139.113822614096</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>947.0357558400672</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>772.5827265589402</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>623.6483168976889</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>464.4108618922334</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>317.8763039191184</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>181.5132037517365</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>91.01130938960404</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>72.00401779114202</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>165.6812872817594</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>403.9454862621065</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>770.6436465747719</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1217.919971797088</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1691.443015351542</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2102.404294769597</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2412.9038862457</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2570.5454438923</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2570.401090484815</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2440.963203978295</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2248.320203656151</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2020.252356790566</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1785.100248558824</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1530.862891830622</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1323.011391625089</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1115.251092860135</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>427.3188191687809</v>
+        <v>680.9163909697355</v>
       </c>
       <c r="C37" t="n">
-        <v>353.2819021370207</v>
+        <v>591.429987859317</v>
       </c>
       <c r="D37" t="n">
-        <v>298.0645286208316</v>
+        <v>520.7631282644695</v>
       </c>
       <c r="E37" t="n">
-        <v>245.0507009345851</v>
+        <v>452.2998144995647</v>
       </c>
       <c r="F37" t="n">
-        <v>193.0600193328214</v>
+        <v>384.8596468191427</v>
       </c>
       <c r="G37" t="n">
-        <v>120.256448603687</v>
+        <v>217.1568101938616</v>
       </c>
       <c r="H37" t="n">
-        <v>68.93852771769144</v>
+        <v>89.87991515530837</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>72.00401779114202</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>117.1266502380776</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>321.113833186954</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>637.6736316354501</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>981.830677234999</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>1323.239053940864</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>1622.568652861277</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>1855.176153294937</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1932.786449447451</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1922.405772022468</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1810.169667666782</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1667.852832053797</v>
       </c>
       <c r="U37" t="n">
-        <v>1319.638447506635</v>
+        <v>1458.199744996929</v>
       </c>
       <c r="V37" t="n">
-        <v>1159.853225196895</v>
+        <v>1282.96503660853</v>
       </c>
       <c r="W37" t="n">
-        <v>965.3353210560813</v>
+        <v>1072.997646389058</v>
       </c>
       <c r="X37" t="n">
-        <v>737.3457701580639</v>
+        <v>924.4578753085287</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5531910145338</v>
+        <v>783.1150759824869</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1696.355985625558</v>
+        <v>1831.963762367462</v>
       </c>
       <c r="C38" t="n">
-        <v>1459.711693492289</v>
+        <v>1542.451025244539</v>
       </c>
       <c r="D38" t="n">
-        <v>1196.345260781685</v>
+        <v>1263.635106455277</v>
       </c>
       <c r="E38" t="n">
-        <v>905.4562740795873</v>
+        <v>957.2966336745206</v>
       </c>
       <c r="F38" t="n">
-        <v>589.3696351861264</v>
+        <v>625.7605087024014</v>
       </c>
       <c r="G38" t="n">
-        <v>269.1964509272696</v>
+        <v>290.1378383648865</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>72.00401779114202</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>72.00401779114202</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>260.8831487501675</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>594.702522440014</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1249.780646603142</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1783.312551275066</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2330.091368333849</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2833.063839213185</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3227.838205570364</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3476.124567326046</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3600.200889557101</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3569.360000901684</v>
       </c>
       <c r="T38" t="n">
-        <v>3214.52733988954</v>
+        <v>3442.832033103394</v>
       </c>
       <c r="U38" t="n">
-        <v>3055.896129059523</v>
+        <v>3268.751336194719</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.732507612099</v>
+        <v>3017.138228668637</v>
       </c>
       <c r="W38" t="n">
-        <v>2561.863118238132</v>
+        <v>2743.819353216011</v>
       </c>
       <c r="X38" t="n">
-        <v>2283.296625873199</v>
+        <v>2449.803374772419</v>
       </c>
       <c r="Y38" t="n">
-        <v>1988.056559793533</v>
+        <v>2139.113822614096</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>947.0357558400673</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>772.5827265589403</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>623.648316897689</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>464.4108618922335</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>317.8763039191184</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>181.5132037517365</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>91.01130938960407</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>72.00401779114202</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>165.6812872817594</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>403.9454862621065</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>770.6436465747719</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.428070438129</v>
+        <v>1217.919971797088</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1691.443015351542</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2102.404294769597</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2412.9038862457</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2570.5454438923</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2570.401090484815</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2440.963203978295</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2248.320203656151</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2020.252356790566</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1785.100248558824</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1530.862891830622</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1323.011391625089</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1115.251092860135</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>809.4010556650272</v>
+        <v>601.4666111522472</v>
       </c>
       <c r="C40" t="n">
-        <v>735.364138633267</v>
+        <v>511.9802080418286</v>
       </c>
       <c r="D40" t="n">
-        <v>680.1467651170778</v>
+        <v>441.3133484469811</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>372.8500346820763</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>305.4098670016542</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>217.1568101938615</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>150.3894032292076</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>72.00401779114202</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>117.1266502380776</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>321.113833186954</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>637.6736316354501</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>981.830677234999</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>1323.239053940864</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>1622.568652861277</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>1855.176153294937</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1932.786449447451</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1842.955992204979</v>
       </c>
       <c r="S40" t="n">
-        <v>1830.507929811466</v>
+        <v>1730.719887849294</v>
       </c>
       <c r="T40" t="n">
-        <v>1703.640580277138</v>
+        <v>1588.403052236308</v>
       </c>
       <c r="U40" t="n">
-        <v>1509.436979298929</v>
+        <v>1378.74996517944</v>
       </c>
       <c r="V40" t="n">
-        <v>1349.651756989188</v>
+        <v>1203.515256791042</v>
       </c>
       <c r="W40" t="n">
-        <v>1155.133852848375</v>
+        <v>993.5478665715694</v>
       </c>
       <c r="X40" t="n">
-        <v>1022.043567846504</v>
+        <v>845.0080954910404</v>
       </c>
       <c r="Y40" t="n">
-        <v>896.1502545991203</v>
+        <v>703.6652961649986</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1768.338774781834</v>
+        <v>1654.936470383459</v>
       </c>
       <c r="C41" t="n">
-        <v>1446.825890789496</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D41" t="n">
-        <v>1136.009825130819</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E41" t="n">
-        <v>797.6712054806478</v>
+        <v>684.268901082273</v>
       </c>
       <c r="F41" t="n">
-        <v>434.1349336391136</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3251.724778557791</v>
       </c>
       <c r="V41" t="n">
-        <v>3081.513828560668</v>
+        <v>2968.111524162293</v>
       </c>
       <c r="W41" t="n">
-        <v>2776.194806238627</v>
+        <v>2662.792501840252</v>
       </c>
       <c r="X41" t="n">
-        <v>2450.178680925621</v>
+        <v>2336.776376527246</v>
       </c>
       <c r="Y41" t="n">
-        <v>2107.488981897883</v>
+        <v>1994.086677499508</v>
       </c>
     </row>
     <row r="42">
@@ -7479,22 +7479,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F43" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G43" t="n">
         <v>215.1557144998336</v>
@@ -7564,16 +7564,16 @@
         <v>116.3881606657647</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
         <v>408.6327023328087</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M43" t="n">
         <v>1162.360316885667</v>
@@ -7594,7 +7594,7 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T43" t="n">
         <v>1938.403572105846</v>
@@ -7612,7 +7612,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2018.472742224993</v>
+        <v>1177.771630834947</v>
       </c>
       <c r="C44" t="n">
-        <v>1696.959858232655</v>
+        <v>1135.548283709657</v>
       </c>
       <c r="D44" t="n">
-        <v>1386.143792573978</v>
+        <v>809.2827319723214</v>
       </c>
       <c r="E44" t="n">
-        <v>1047.805172923807</v>
+        <v>455.4946262434922</v>
       </c>
       <c r="F44" t="n">
-        <v>684.268901082273</v>
+        <v>76.50886832329967</v>
       </c>
       <c r="G44" t="n">
-        <v>316.6460838753429</v>
+        <v>76.50886832329967</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>76.50886832329967</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218343</v>
@@ -7649,13 +7649,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060172</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3247.315300005682</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3073.337699259319</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2851.80736940257</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2552.744628928414</v>
       </c>
       <c r="W44" t="n">
-        <v>3026.328773681787</v>
+        <v>2231.976120527715</v>
       </c>
       <c r="X44" t="n">
-        <v>2700.31264836878</v>
+        <v>1890.510509136051</v>
       </c>
       <c r="Y44" t="n">
-        <v>2357.622949341042</v>
+        <v>1532.371324029654</v>
       </c>
     </row>
     <row r="45">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.466249805296</v>
+        <v>716.8005923286419</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254625</v>
+        <v>579.8645562701499</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933612001</v>
+        <v>461.7480637272292</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268804</v>
+        <v>345.8351170142512</v>
       </c>
       <c r="F46" t="n">
-        <v>335.4089181770412</v>
+        <v>345.8351170142512</v>
       </c>
       <c r="G46" t="n">
-        <v>215.1557144998336</v>
+        <v>246.0546866571503</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3881606657647</v>
+        <v>131.8376467444231</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>158.1401341315257</v>
+        <v>142.9980928258327</v>
       </c>
       <c r="K46" t="n">
-        <v>408.6327023328088</v>
+        <v>378.3486197214227</v>
       </c>
       <c r="L46" t="n">
-        <v>771.6978860337117</v>
+        <v>726.2717621166325</v>
       </c>
       <c r="M46" t="n">
-        <v>1162.360316885668</v>
+        <v>1101.792151662895</v>
       </c>
       <c r="N46" t="n">
-        <v>1550.274078843939</v>
+        <v>1474.563872315473</v>
       </c>
       <c r="O46" t="n">
-        <v>1896.109063016759</v>
+        <v>1805.2568151826</v>
       </c>
       <c r="P46" t="n">
-        <v>2175.221948702825</v>
+        <v>2069.227659562973</v>
       </c>
       <c r="Q46" t="n">
-        <v>2299.337630107746</v>
+        <v>2178.201299662202</v>
       </c>
       <c r="R46" t="n">
-        <v>2256.956805813348</v>
+        <v>2178.201299662202</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.720554588248</v>
+        <v>2178.201299662202</v>
       </c>
       <c r="T46" t="n">
-        <v>1938.403572105847</v>
+        <v>1988.434831101143</v>
       </c>
       <c r="U46" t="n">
-        <v>1696.750338179564</v>
+        <v>1731.332111096201</v>
       </c>
       <c r="V46" t="n">
-        <v>1489.51548292175</v>
+        <v>1508.647769759729</v>
       </c>
       <c r="W46" t="n">
-        <v>1247.547945832863</v>
+        <v>1251.230746592184</v>
       </c>
       <c r="X46" t="n">
-        <v>1067.008027882919</v>
+        <v>1055.241342563582</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874624</v>
+        <v>866.4489102894665</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>213.7089309661116</v>
+        <v>218.2111409464629</v>
       </c>
       <c r="L5" t="n">
-        <v>227.8503193726002</v>
+        <v>233.4357089658653</v>
       </c>
       <c r="M5" t="n">
-        <v>221.5380516068512</v>
+        <v>227.7528737187178</v>
       </c>
       <c r="N5" t="n">
-        <v>220.4623563888806</v>
+        <v>226.7777408199137</v>
       </c>
       <c r="O5" t="n">
-        <v>221.6463124176202</v>
+        <v>227.6097508526263</v>
       </c>
       <c r="P5" t="n">
-        <v>224.0194954968931</v>
+        <v>229.1091522321465</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>124.3018764260165</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>133.5074379247318</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L6" t="n">
-        <v>132.7267805197011</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M6" t="n">
-        <v>135.3335004554958</v>
+        <v>140.1317786452013</v>
       </c>
       <c r="N6" t="n">
-        <v>124.3611887315708</v>
+        <v>129.2864630672354</v>
       </c>
       <c r="O6" t="n">
-        <v>136.210429333514</v>
+        <v>140.7160931202018</v>
       </c>
       <c r="P6" t="n">
-        <v>128.8492278044037</v>
+        <v>132.4654202195568</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.5557272449332</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,16 +8377,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>131.5393333932398</v>
+        <v>133.8997196622861</v>
       </c>
       <c r="M7" t="n">
-        <v>135.3985889238948</v>
+        <v>137.8872852940284</v>
       </c>
       <c r="N7" t="n">
-        <v>124.2422182555182</v>
+        <v>126.6717389884799</v>
       </c>
       <c r="O7" t="n">
-        <v>135.2760693786741</v>
+        <v>137.5201250048898</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>136.3112094275406</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>153.0441393647737</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L8" t="n">
-        <v>152.5902810433204</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M8" t="n">
-        <v>137.7967579086039</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N8" t="n">
-        <v>135.3660410097685</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O8" t="n">
-        <v>141.2922748525333</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P8" t="n">
-        <v>155.4391834914539</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.3876933750858</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>100.1939487289572</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K9" t="n">
-        <v>92.30314963622938</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L9" t="n">
-        <v>77.32252999080644</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M9" t="n">
-        <v>70.67935333794718</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N9" t="n">
-        <v>57.99583872423973</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O9" t="n">
-        <v>75.49909960033663</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P9" t="n">
-        <v>80.12303328815247</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.9835566077662</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>101.544742066928</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>99.73443274771746</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M10" t="n">
-        <v>101.8647805693184</v>
+        <v>129.0262495446562</v>
       </c>
       <c r="N10" t="n">
-        <v>91.50576891186665</v>
+        <v>118.0213988638391</v>
       </c>
       <c r="O10" t="n">
-        <v>105.0386598619454</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P10" t="n">
-        <v>109.1332357985691</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9176,13 +9176,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>59.50638973299579</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>206.1049605199178</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>12.68816924374474</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>181.7257163778889</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>21.13839585591376</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>274.8351763665426</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10115,10 +10115,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>274.8351763665428</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>28.65608477603746</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>287.001785447392</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>287.0017854473906</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>37.0083453478442</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>206.1049605199178</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.25257452796786</v>
+        <v>15.28796821707176</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.77566412555175</v>
+        <v>15.16194852731945</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>287.8206362404711</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>144.0037876120301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>203.3913796987501</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>292.4129137842186</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>286.7586765022521</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23780,19 +23780,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>188.7250441224377</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>40.66711443744811</v>
       </c>
       <c r="W17" t="n">
-        <v>5.981554650709768</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24017,22 +24017,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>5.981554650709768</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>229.3921585598856</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>52.28225787287616</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>37.04476932188575</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.23748855099066</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25637,13 +25637,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>193.0904278890265</v>
       </c>
       <c r="V41" t="n">
-        <v>39.12604873352399</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>291.7916327162494</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,10 +25877,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>379.2415802527325</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>262.9276189865996</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958319</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210275</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403093</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515422</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>5.981554650709313</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26032,10 +26032,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>113.7409026222104</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>35.56303680477744</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.25200726932646</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>158.088879930721</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>718609.4265499655</v>
+        <v>720266.34141179</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>693447.0673426213</v>
+        <v>714153.6951788318</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>602270.6361048254</v>
+        <v>602270.6361048253</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>602270.6361048254</v>
+        <v>615480.3082200525</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>602270.6361048254</v>
+        <v>640570.0655751674</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>602270.6361048254</v>
+        <v>640570.0655751674</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>669129.7380069393</v>
+        <v>662173.4118307546</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>642841.182596839</v>
+        <v>654721.2678367267</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>642841.182596839</v>
+        <v>654721.2678367267</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>602270.6361048255</v>
+        <v>581668.037586414</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491124</v>
+        <v>798794.4302491123</v>
       </c>
       <c r="C2" t="n">
-        <v>798798.3233985462</v>
+        <v>798795.576494335</v>
       </c>
       <c r="D2" t="n">
-        <v>798835.3364148778</v>
+        <v>798805.3568824569</v>
       </c>
       <c r="E2" t="n">
-        <v>745417.734642596</v>
+        <v>745417.7346425962</v>
       </c>
       <c r="F2" t="n">
-        <v>745417.7346425966</v>
+        <v>762036.3544004626</v>
       </c>
       <c r="G2" t="n">
-        <v>745417.7346425966</v>
+        <v>782712.6001918431</v>
       </c>
       <c r="H2" t="n">
-        <v>745417.7346425966</v>
+        <v>782712.6001918432</v>
       </c>
       <c r="I2" t="n">
+        <v>800515.7256176772</v>
+      </c>
+      <c r="J2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="K2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="L2" t="n">
         <v>800515.7256176764</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>800515.7256176763</v>
       </c>
-      <c r="K2" t="n">
-        <v>800515.7256176764</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176765</v>
-      </c>
-      <c r="M2" t="n">
-        <v>796458.0995841627</v>
-      </c>
       <c r="N2" t="n">
-        <v>796458.0995841621</v>
+        <v>800515.725617676</v>
       </c>
       <c r="O2" t="n">
-        <v>745417.7346425961</v>
+        <v>745417.7346425962</v>
       </c>
       <c r="P2" t="n">
-        <v>745417.7346425964</v>
+        <v>719498.3365065297</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11362.53096455481</v>
+        <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>101597.6454119784</v>
+        <v>26846.35036165576</v>
       </c>
       <c r="E3" t="n">
-        <v>1056014.393457904</v>
+        <v>1133211.97770721</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12235.9929742974</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18815.59729962713</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902283</v>
+        <v>15718.45810049559</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487406</v>
+        <v>39780.77823330701</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>12235.99297429737</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>199180.5423999885</v>
+        <v>204052.0967539151</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>432786.3384068647</v>
+        <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>429384.2613130671</v>
+        <v>429908.1492159134</v>
       </c>
       <c r="D4" t="n">
-        <v>398237.3560993719</v>
+        <v>421594.9912398731</v>
       </c>
       <c r="E4" t="n">
-        <v>57819.82564689768</v>
+        <v>57605.61344858622</v>
       </c>
       <c r="F4" t="n">
-        <v>57819.82564689766</v>
+        <v>67257.13532134384</v>
       </c>
       <c r="G4" t="n">
-        <v>57819.82564689766</v>
+        <v>75944.38354587267</v>
       </c>
       <c r="H4" t="n">
-        <v>57819.82564689768</v>
+        <v>75944.38354587267</v>
       </c>
       <c r="I4" t="n">
-        <v>81475.81413712152</v>
+        <v>83424.47307987821</v>
       </c>
       <c r="J4" t="n">
-        <v>81475.81413712152</v>
+        <v>80755.36360646597</v>
       </c>
       <c r="K4" t="n">
-        <v>81475.81413712149</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="L4" t="n">
-        <v>81475.81413712155</v>
+        <v>80755.36360646591</v>
       </c>
       <c r="M4" t="n">
-        <v>87582.99233859971</v>
+        <v>86327.45298104583</v>
       </c>
       <c r="N4" t="n">
-        <v>87582.99233859971</v>
+        <v>86327.45298104585</v>
       </c>
       <c r="O4" t="n">
-        <v>57819.82564689769</v>
+        <v>57605.61344858626</v>
       </c>
       <c r="P4" t="n">
-        <v>57819.82564689773</v>
+        <v>42394.5825297605</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33899.6213386609</v>
+        <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>36485.78722336284</v>
+        <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>79541.32793847701</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178176</v>
+        <v>83715.17297128557</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178176</v>
+        <v>83715.17297128557</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.9416748061</v>
+        <v>87309.03074299271</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26497,19 +26497,19 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82204.64608217022</v>
+        <v>85092.65649828348</v>
       </c>
       <c r="N5" t="n">
-        <v>82204.64608217022</v>
+        <v>85092.65649828348</v>
       </c>
       <c r="O5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="P5" t="n">
-        <v>78255.49332178177</v>
+        <v>76969.65870508651</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>332380.4918422477</v>
+        <v>334268.3208064365</v>
       </c>
       <c r="C6" t="n">
-        <v>324151.9097822635</v>
+        <v>331834.3101690367</v>
       </c>
       <c r="D6" t="n">
-        <v>262514.5476801646</v>
+        <v>315972.9517972512</v>
       </c>
       <c r="E6" t="n">
-        <v>-446671.9777839872</v>
+        <v>-523655.3498349817</v>
       </c>
       <c r="F6" t="n">
-        <v>609342.4156739174</v>
+        <v>603001.8981663443</v>
       </c>
       <c r="G6" t="n">
-        <v>609342.4156739172</v>
+        <v>604237.4463750578</v>
       </c>
       <c r="H6" t="n">
-        <v>609342.4156739172</v>
+        <v>623053.0436746851</v>
       </c>
       <c r="I6" t="n">
-        <v>581015.710126726</v>
+        <v>614063.7636943107</v>
       </c>
       <c r="J6" t="n">
-        <v>592081.8605108745</v>
+        <v>590601.6421030969</v>
       </c>
       <c r="K6" t="n">
-        <v>629661.9698057487</v>
+        <v>618146.4273621066</v>
       </c>
       <c r="L6" t="n">
-        <v>629661.9698057488</v>
+        <v>630382.4203364043</v>
       </c>
       <c r="M6" t="n">
-        <v>427489.9187634042</v>
+        <v>425043.5193844319</v>
       </c>
       <c r="N6" t="n">
-        <v>626670.4611633922</v>
+        <v>629095.6161383467</v>
       </c>
       <c r="O6" t="n">
-        <v>609342.4156739167</v>
+        <v>609556.6278722282</v>
       </c>
       <c r="P6" t="n">
-        <v>609342.4156739169</v>
+        <v>600134.0952716827</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="N2" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="O2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
     </row>
     <row r="3">
@@ -26738,25 +26738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12.47804305783955</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>131.1095056588462</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26799,16 +26799,16 @@
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>900.0502223892755</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>900.0502223892755</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208614</v>
+        <v>959.159725213406</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26817,16 +26817,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>900.0502223892753</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>900.0502223892753</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>15.29499121787175</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>31.68014540072082</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.29499121787172</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072086</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12.47804305783955</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>118.6314626010066</v>
+        <v>31.347397825883</v>
       </c>
       <c r="E3" t="n">
-        <v>958.6671949344524</v>
+        <v>1054.755439874173</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>68.64876698698259</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063216</v>
+        <v>59.10950282413044</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>55.17673599520856</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.466449595971</v>
+        <v>717.1152165829536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.29499121787175</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859258</v>
+        <v>31.68014540072082</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>15.29499121787172</v>
       </c>
     </row>
     <row r="3">
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>68.64876698698259</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.9610704234411</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>208.5419810076426</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>7.691768522530872</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,19 +27658,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.573660934093467</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>146.7180671985084</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>207.8769805161729</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>222.876261087807</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3416398688631</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3166775988975</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>111.9762305495779</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>88.47255136081093</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.49142681748486</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>171.1846379684609</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>200.0565464158579</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9396163201648</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27786,19 +27786,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9684779693381</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.0271147023483</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>154.7737967889741</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>91.76833190583969</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>19.65523952622401</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,22 +27813,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>84.27785874996061</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>176.2816470990699</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>223.6244601920234</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.8494471293112</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3178020079934</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>334.0769117646972</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I8" t="n">
-        <v>190.1558927184957</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>116.7603441327376</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>197.0093847211159</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
-        <v>220.7885858012305</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3034870366698</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.0615080378312</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5118297887533</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>79.68710813988731</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.64853073654288</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
-        <v>166.4449752881283</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
-        <v>199.028034018402</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
-        <v>225.922828849042</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,19 +28023,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.7545523810412</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H10" t="n">
-        <v>160.1251217445813</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I10" t="n">
-        <v>148.3404709154638</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.64379281324906</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.36450789720861</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
-        <v>166.6627747380113</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
-        <v>219.8963206214311</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
-        <v>226.9354014338609</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3061333395408</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859259</v>
+        <v>1.572173378302239</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859165</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859259</v>
+        <v>1.572173378302011</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859136</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859182</v>
+        <v>1.572173378301954</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859259</v>
+        <v>1.572173378301841</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859259</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859165</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859259</v>
+        <v>62.27012783646432</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29934,13 +29934,13 @@
         <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859347</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O34" t="n">
         <v>46.97513661859254</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="C35" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="D35" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="E35" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="F35" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="G35" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="H35" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="T35" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="U35" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="V35" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="W35" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="X35" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="Y35" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.48995205464195</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="C37" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="D37" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="E37" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="F37" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="G37" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>93.95027323718517</v>
+        <v>18.75088882615307</v>
       </c>
       <c r="I37" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="U37" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="V37" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="W37" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.6552820193134</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="C38" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="D38" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="E38" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="F38" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="G38" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="H38" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="T38" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="U38" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="V38" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="W38" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="X38" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="Y38" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="C40" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="D40" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="E40" t="n">
-        <v>91.48995205464207</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>18.7508888261532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="T40" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="U40" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="V40" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="W40" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="X40" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.95027323718517</v>
+        <v>78.6552820193134</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859264</v>
+        <v>31.68014540072087</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05016298716719412</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5137316923260269</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>1.933908562763253</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>4.257520832081646</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>6.380920078868974</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>7.916095597386993</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>8.80818162042158</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>8.950707207710371</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>8.451899004066584</v>
+        <v>2.48846056906043</v>
       </c>
       <c r="P5" t="n">
-        <v>7.213500258376478</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.417038280451338</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>3.15105074264126</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>1.143089070072437</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2195884763243924</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004013038973375529</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02683956431308884</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2592136869185159</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9240814906041552</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>2.535750240650205</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>4.334001049627156</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>5.827599260173083</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>6.800533466522552</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>6.980523351762521</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>6.385815110930395</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>5.125179609926587</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.426046841088322</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>1.666407335158271</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0.498533135376891</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1081822789637221</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001765760810071635</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02250138912069426</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2000578050912637</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6766781382841512</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>1.590848210833084</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>2.614252299658842</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>3.345342887998491</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>3.527195023710282</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>3.443326209714971</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>3.180469073168677</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.884184501733771</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>1.01174427809958</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3921378449488262</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.09614229897023908</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001227348497492416</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5270733895833007</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H8" t="n">
-        <v>5.39789035106998</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I8" t="n">
-        <v>20.31999685191022</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J8" t="n">
-        <v>44.73469509914571</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>67.04571168020685</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L8" t="n">
-        <v>83.17613392666681</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M8" t="n">
-        <v>92.54947531866883</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N8" t="n">
-        <v>94.04702258682238</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O8" t="n">
-        <v>88.80593656915343</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P8" t="n">
-        <v>75.79381226381568</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q8" t="n">
-        <v>56.91799649936371</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R8" t="n">
-        <v>33.10877380841205</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S8" t="n">
-        <v>12.01068486512948</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T8" t="n">
-        <v>2.3072637629009</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04216587116666405</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.282009125379405</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H9" t="n">
-        <v>2.723614447743201</v>
+        <v>0.7275171330520187</v>
       </c>
       <c r="I9" t="n">
-        <v>9.709524711527759</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J9" t="n">
-        <v>26.64367793770949</v>
+        <v>7.116914878779989</v>
       </c>
       <c r="K9" t="n">
-        <v>45.53828933812962</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L9" t="n">
-        <v>61.23184978906774</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M9" t="n">
-        <v>71.45468058407114</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N9" t="n">
-        <v>73.34587335909357</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O9" t="n">
-        <v>67.0971448441078</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P9" t="n">
-        <v>53.85137412617778</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q9" t="n">
-        <v>35.99821747825528</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R9" t="n">
-        <v>17.50930341610026</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S9" t="n">
-        <v>5.238195815709558</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T9" t="n">
-        <v>1.136694676419619</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0185532319328556</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2364269774175914</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H10" t="n">
-        <v>2.102050762858223</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I10" t="n">
-        <v>7.110004011794478</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J10" t="n">
-        <v>16.71538730342371</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K10" t="n">
-        <v>27.46851610360743</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L10" t="n">
-        <v>35.15024353352082</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M10" t="n">
-        <v>37.06100337828662</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N10" t="n">
-        <v>36.17977555336654</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O10" t="n">
-        <v>33.41787858989738</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P10" t="n">
-        <v>28.5947682505785</v>
+        <v>7.638079550938412</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.79753535448577</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R10" t="n">
-        <v>10.63061663915824</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S10" t="n">
-        <v>4.120277415541114</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T10" t="n">
-        <v>1.010187994420618</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01289601695005045</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837919</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32707,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004586</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165881</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>346.4291195458423</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412323</v>
+        <v>364.6232580591041</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>297.2271989815748</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564853</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>567.5593906212151</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165881</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629122</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861327</v>
+        <v>346.4291195458422</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412311</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>281.932207763703</v>
+        <v>297.2271989815748</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564862</v>
+        <v>140.664366374358</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>604.8669467392898</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165881</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629122</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887899</v>
+        <v>321.3295455485002</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120764</v>
+        <v>409.9035072299482</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564862</v>
+        <v>140.664366374358</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>203.4751702124573</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>689.7787172661083</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165881</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629122</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120764</v>
+        <v>349.2055527717857</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>281.932207763703</v>
+        <v>297.2271989815748</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564853</v>
+        <v>140.664366374358</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>358.3296824113143</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>827.137011779454</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36835,10 +36835,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>730.425290758875</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36847,13 +36847,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>427.4180709954093</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36993,13 +36993,13 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37075,13 +37075,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>825.9229012776187</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>795.0547863356097</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887916</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37324,10 +37324,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>287.8026501515637</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37546,7 +37546,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>661.69507491225</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37561,10 +37561,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629122</v>
@@ -37950,7 +37950,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
         <v>281.932207763703</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165887</v>
+        <v>77.2585620137871</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>237.7278049450404</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>351.437517570919</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120765</v>
+        <v>379.3135247942047</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>376.537091568261</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>334.0332756233606</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637031</v>
+        <v>266.6372165458313</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>110.0743839386145</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3440509.088912011</v>
+        <v>3535282.695471729</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10429497.39806896</v>
+        <v>10323280.00902256</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>693463.6060443785</v>
+        <v>578341.2189755033</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7614193.418760961</v>
+        <v>7650933.889877958</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1372,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>47.13459721319809</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>178.7521764478457</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1433,7 +1435,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1546,7 +1548,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128497</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>320.4637138270162</v>
+        <v>335.7587050448882</v>
       </c>
       <c r="C14" t="n">
-        <v>99.6113842357931</v>
+        <v>318.2977551524151</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020906</v>
       </c>
       <c r="E14" t="n">
-        <v>319.6602422357975</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>344.6059179052471</v>
+        <v>204.0774307342237</v>
       </c>
       <c r="G14" t="n">
-        <v>348.6515978169891</v>
+        <v>363.9465890348611</v>
       </c>
       <c r="H14" t="n">
-        <v>232.3376365508561</v>
+        <v>247.6326277687281</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.91763395171151</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>141.6478423031558</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>188.7250441224377</v>
+        <v>204.0200353403096</v>
       </c>
       <c r="V14" t="n">
-        <v>265.4821306336706</v>
+        <v>280.7771218515425</v>
       </c>
       <c r="W14" t="n">
-        <v>286.9708408809487</v>
+        <v>302.2658320988206</v>
       </c>
       <c r="X14" t="n">
-        <v>307.4609728420047</v>
+        <v>322.7559640598766</v>
       </c>
       <c r="Y14" t="n">
-        <v>323.9678108195893</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>117.561852345473</v>
+        <v>132.8568435633449</v>
       </c>
       <c r="C16" t="n">
-        <v>104.9766932621635</v>
+        <v>120.2716844800354</v>
       </c>
       <c r="D16" t="n">
-        <v>86.34534518174803</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E16" t="n">
-        <v>84.16383481010485</v>
+        <v>99.45882602797676</v>
       </c>
       <c r="F16" t="n">
-        <v>83.15092018646692</v>
+        <v>98.44591140433883</v>
       </c>
       <c r="G16" t="n">
-        <v>103.7556804225639</v>
+        <v>119.0506716404358</v>
       </c>
       <c r="H16" t="n">
-        <v>82.48488707785646</v>
+        <v>97.77987829572837</v>
       </c>
       <c r="I16" t="n">
-        <v>34.08229257337377</v>
+        <v>49.37728379124568</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>26.662024833583</v>
+        <v>41.95701605145491</v>
       </c>
       <c r="S16" t="n">
-        <v>127.4988974949776</v>
+        <v>142.7938887128495</v>
       </c>
       <c r="T16" t="n">
-        <v>157.2788214397049</v>
+        <v>172.5738126575768</v>
       </c>
       <c r="U16" t="n">
-        <v>223.9417103691485</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V16" t="n">
-        <v>189.8675154873637</v>
+        <v>205.1625067052356</v>
       </c>
       <c r="W16" t="n">
-        <v>224.2528705001267</v>
+        <v>239.5478617179986</v>
       </c>
       <c r="X16" t="n">
-        <v>163.4395275525728</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y16" t="n">
-        <v>156.3145255156305</v>
+        <v>171.6095167335024</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320.4637138270162</v>
+        <v>312.2711367355918</v>
       </c>
       <c r="C17" t="n">
-        <v>303.0027639345432</v>
+        <v>294.8101868431188</v>
       </c>
       <c r="D17" t="n">
-        <v>292.4129137842186</v>
+        <v>284.2203366927941</v>
       </c>
       <c r="E17" t="n">
-        <v>319.6602422357975</v>
+        <v>311.467665144373</v>
       </c>
       <c r="F17" t="n">
-        <v>344.6059179052471</v>
+        <v>336.4133408138226</v>
       </c>
       <c r="G17" t="n">
-        <v>348.6515978169891</v>
+        <v>340.4590207255646</v>
       </c>
       <c r="H17" t="n">
-        <v>232.3376365508561</v>
+        <v>224.1450594594317</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.91763395171148</v>
+        <v>38.72505686028705</v>
       </c>
       <c r="T17" t="n">
-        <v>141.6478423031558</v>
+        <v>133.4552652117314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>180.5324670310129</v>
       </c>
       <c r="V17" t="n">
-        <v>224.8150161962225</v>
+        <v>257.2895535422462</v>
       </c>
       <c r="W17" t="n">
-        <v>286.9708408809487</v>
+        <v>278.7782637895242</v>
       </c>
       <c r="X17" t="n">
-        <v>307.4609728420047</v>
+        <v>299.2683957505802</v>
       </c>
       <c r="Y17" t="n">
-        <v>323.9678108195893</v>
+        <v>315.7752337281648</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.561852345473</v>
+        <v>109.3692752540485</v>
       </c>
       <c r="C19" t="n">
-        <v>104.9766932621635</v>
+        <v>96.78411617073905</v>
       </c>
       <c r="D19" t="n">
-        <v>86.34534518174803</v>
+        <v>85.63120984000311</v>
       </c>
       <c r="E19" t="n">
-        <v>84.16383481010485</v>
+        <v>75.97125771868039</v>
       </c>
       <c r="F19" t="n">
-        <v>83.15092018646692</v>
+        <v>74.95834309504247</v>
       </c>
       <c r="G19" t="n">
-        <v>103.7556804225639</v>
+        <v>95.56310333113944</v>
       </c>
       <c r="H19" t="n">
-        <v>82.48488707785646</v>
+        <v>74.292309986432</v>
       </c>
       <c r="I19" t="n">
-        <v>34.08229257337376</v>
+        <v>25.88971548194932</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.66202483358299</v>
+        <v>18.46944774215855</v>
       </c>
       <c r="S19" t="n">
-        <v>127.4988974949776</v>
+        <v>119.3063204035531</v>
       </c>
       <c r="T19" t="n">
-        <v>157.2788214397049</v>
+        <v>149.0862443482804</v>
       </c>
       <c r="U19" t="n">
-        <v>223.9417103691485</v>
+        <v>215.7491332777241</v>
       </c>
       <c r="V19" t="n">
-        <v>189.8675154873637</v>
+        <v>181.6749383959392</v>
       </c>
       <c r="W19" t="n">
-        <v>224.2528705001267</v>
+        <v>216.0602934087022</v>
       </c>
       <c r="X19" t="n">
-        <v>163.4395275525728</v>
+        <v>155.2469504611484</v>
       </c>
       <c r="Y19" t="n">
-        <v>156.3145255156305</v>
+        <v>148.121948424206</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.4637138270162</v>
+        <v>312.2711367355918</v>
       </c>
       <c r="C20" t="n">
-        <v>303.0027639345432</v>
+        <v>294.8101868431188</v>
       </c>
       <c r="D20" t="n">
-        <v>292.4129137842186</v>
+        <v>284.2203366927941</v>
       </c>
       <c r="E20" t="n">
-        <v>319.6602422357975</v>
+        <v>311.467665144373</v>
       </c>
       <c r="F20" t="n">
-        <v>344.6059179052471</v>
+        <v>336.4133408138226</v>
       </c>
       <c r="G20" t="n">
-        <v>348.6515978169891</v>
+        <v>340.4590207255646</v>
       </c>
       <c r="H20" t="n">
-        <v>232.3376365508561</v>
+        <v>224.1450594594316</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.91763395171148</v>
+        <v>38.72505686028705</v>
       </c>
       <c r="T20" t="n">
-        <v>141.6478423031558</v>
+        <v>133.4552652117314</v>
       </c>
       <c r="U20" t="n">
-        <v>188.7250441224377</v>
+        <v>180.5324670310133</v>
       </c>
       <c r="V20" t="n">
-        <v>265.4821306336706</v>
+        <v>257.2895535422462</v>
       </c>
       <c r="W20" t="n">
-        <v>286.9708408809487</v>
+        <v>278.7782637895242</v>
       </c>
       <c r="X20" t="n">
-        <v>78.06881428211912</v>
+        <v>299.2683957505802</v>
       </c>
       <c r="Y20" t="n">
-        <v>323.9678108195893</v>
+        <v>315.7752337281648</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>117.561852345473</v>
+        <v>109.3692752540485</v>
       </c>
       <c r="C22" t="n">
-        <v>104.9766932621635</v>
+        <v>96.78411617073905</v>
       </c>
       <c r="D22" t="n">
-        <v>86.34534518174803</v>
+        <v>78.15276809032358</v>
       </c>
       <c r="E22" t="n">
-        <v>84.16383481010485</v>
+        <v>75.97125771868039</v>
       </c>
       <c r="F22" t="n">
-        <v>83.15092018646692</v>
+        <v>74.95834309504247</v>
       </c>
       <c r="G22" t="n">
-        <v>103.7556804225639</v>
+        <v>95.56310333113944</v>
       </c>
       <c r="H22" t="n">
-        <v>82.48488707785646</v>
+        <v>81.77075173611152</v>
       </c>
       <c r="I22" t="n">
-        <v>34.08229257337376</v>
+        <v>25.88971548194932</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>26.66202483358299</v>
+        <v>18.46944774215855</v>
       </c>
       <c r="S22" t="n">
-        <v>127.4988974949776</v>
+        <v>119.3063204035531</v>
       </c>
       <c r="T22" t="n">
-        <v>157.2788214397049</v>
+        <v>149.0862443482804</v>
       </c>
       <c r="U22" t="n">
-        <v>223.9417103691485</v>
+        <v>215.7491332777241</v>
       </c>
       <c r="V22" t="n">
-        <v>189.8675154873637</v>
+        <v>181.6749383959392</v>
       </c>
       <c r="W22" t="n">
-        <v>224.2528705001267</v>
+        <v>216.0602934087022</v>
       </c>
       <c r="X22" t="n">
-        <v>163.4395275525728</v>
+        <v>155.2469504611484</v>
       </c>
       <c r="Y22" t="n">
-        <v>156.3145255156305</v>
+        <v>148.121948424206</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.4637138270162</v>
+        <v>312.2711367355918</v>
       </c>
       <c r="C23" t="n">
-        <v>303.0027639345432</v>
+        <v>294.8101868431188</v>
       </c>
       <c r="D23" t="n">
-        <v>292.4129137842186</v>
+        <v>284.2203366927941</v>
       </c>
       <c r="E23" t="n">
-        <v>319.6602422357975</v>
+        <v>311.467665144373</v>
       </c>
       <c r="F23" t="n">
-        <v>344.6059179052471</v>
+        <v>336.4133408138226</v>
       </c>
       <c r="G23" t="n">
-        <v>348.6515978169891</v>
+        <v>340.4590207255646</v>
       </c>
       <c r="H23" t="n">
-        <v>232.3376365508561</v>
+        <v>224.1450594594317</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.91763395171149</v>
+        <v>38.72505686028705</v>
       </c>
       <c r="T23" t="n">
-        <v>141.6478423031558</v>
+        <v>133.4552652117314</v>
       </c>
       <c r="U23" t="n">
-        <v>188.7250441224373</v>
+        <v>180.5324670310133</v>
       </c>
       <c r="V23" t="n">
-        <v>265.4821306336706</v>
+        <v>257.2895535422462</v>
       </c>
       <c r="W23" t="n">
-        <v>286.9708408809487</v>
+        <v>278.7782637895242</v>
       </c>
       <c r="X23" t="n">
-        <v>307.4609728420047</v>
+        <v>299.2683957505802</v>
       </c>
       <c r="Y23" t="n">
-        <v>323.9678108195893</v>
+        <v>315.7752337281648</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>117.561852345473</v>
+        <v>109.3692752540485</v>
       </c>
       <c r="C25" t="n">
-        <v>104.9766932621635</v>
+        <v>96.78411617073905</v>
       </c>
       <c r="D25" t="n">
-        <v>86.34534518174803</v>
+        <v>78.15276809032358</v>
       </c>
       <c r="E25" t="n">
-        <v>84.16383481010485</v>
+        <v>75.97125771868039</v>
       </c>
       <c r="F25" t="n">
-        <v>83.15092018646692</v>
+        <v>74.95834309504247</v>
       </c>
       <c r="G25" t="n">
-        <v>103.7556804225639</v>
+        <v>95.56310333113944</v>
       </c>
       <c r="H25" t="n">
-        <v>82.48488707785646</v>
+        <v>74.292309986432</v>
       </c>
       <c r="I25" t="n">
-        <v>34.08229257337376</v>
+        <v>25.88971548194932</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>26.66202483358299</v>
+        <v>25.9478894918381</v>
       </c>
       <c r="S25" t="n">
-        <v>127.4988974949776</v>
+        <v>119.3063204035531</v>
       </c>
       <c r="T25" t="n">
-        <v>157.2788214397049</v>
+        <v>149.0862443482804</v>
       </c>
       <c r="U25" t="n">
-        <v>223.9417103691485</v>
+        <v>215.7491332777241</v>
       </c>
       <c r="V25" t="n">
-        <v>189.8675154873637</v>
+        <v>181.6749383959392</v>
       </c>
       <c r="W25" t="n">
-        <v>224.2528705001267</v>
+        <v>216.0602934087022</v>
       </c>
       <c r="X25" t="n">
-        <v>163.4395275525728</v>
+        <v>155.2469504611484</v>
       </c>
       <c r="Y25" t="n">
-        <v>156.3145255156305</v>
+        <v>148.121948424206</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2608,7 @@
         <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403093</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247751</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572861</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124666</v>
+        <v>49.37728379124525</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145474</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958311</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210282</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403102</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633446</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800351</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797649</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433856</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404355</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957281</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912454</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145464</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128492</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575802</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052353</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179983</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210273</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403084</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,19 +3195,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514543</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3243,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>304.0785596441672</v>
+        <v>312.2711367355918</v>
       </c>
       <c r="C35" t="n">
-        <v>286.6176097516941</v>
+        <v>294.8101868431187</v>
       </c>
       <c r="D35" t="n">
-        <v>276.0277596013696</v>
+        <v>284.2203366927941</v>
       </c>
       <c r="E35" t="n">
-        <v>303.2750880529484</v>
+        <v>311.467665144373</v>
       </c>
       <c r="F35" t="n">
-        <v>328.220763722398</v>
+        <v>336.4133408138226</v>
       </c>
       <c r="G35" t="n">
-        <v>332.26644363414</v>
+        <v>340.4590207255646</v>
       </c>
       <c r="H35" t="n">
-        <v>215.9524823680071</v>
+        <v>224.1450594594316</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>30.5324797688629</v>
+        <v>38.72505686028688</v>
       </c>
       <c r="T35" t="n">
-        <v>125.2626881203067</v>
+        <v>133.4552652117313</v>
       </c>
       <c r="U35" t="n">
-        <v>172.3398899395886</v>
+        <v>180.5324670310133</v>
       </c>
       <c r="V35" t="n">
-        <v>249.0969764508215</v>
+        <v>257.289553542246</v>
       </c>
       <c r="W35" t="n">
-        <v>270.5856866980996</v>
+        <v>278.7782637895242</v>
       </c>
       <c r="X35" t="n">
-        <v>291.0758186591556</v>
+        <v>299.2683957505802</v>
       </c>
       <c r="Y35" t="n">
-        <v>307.5826566367402</v>
+        <v>315.7752337281647</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.1766981626239</v>
+        <v>109.3692752540485</v>
       </c>
       <c r="C37" t="n">
-        <v>88.59153907931443</v>
+        <v>96.784116170739</v>
       </c>
       <c r="D37" t="n">
-        <v>69.96019099889895</v>
+        <v>78.15276809032352</v>
       </c>
       <c r="E37" t="n">
-        <v>67.77868062725577</v>
+        <v>75.97125771868033</v>
       </c>
       <c r="F37" t="n">
-        <v>66.76576600361784</v>
+        <v>74.95834309504241</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>95.56310333113939</v>
       </c>
       <c r="H37" t="n">
-        <v>126.0041260881677</v>
+        <v>81.7707517361122</v>
       </c>
       <c r="I37" t="n">
-        <v>17.69713839052469</v>
+        <v>25.88971548194926</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.27687065073393</v>
+        <v>18.46944774215849</v>
       </c>
       <c r="S37" t="n">
-        <v>111.1137433121285</v>
+        <v>119.3063204035531</v>
       </c>
       <c r="T37" t="n">
-        <v>140.8936672568558</v>
+        <v>149.0862443482804</v>
       </c>
       <c r="U37" t="n">
-        <v>207.5565561862994</v>
+        <v>215.749133277724</v>
       </c>
       <c r="V37" t="n">
-        <v>173.4823613045146</v>
+        <v>181.6749383959392</v>
       </c>
       <c r="W37" t="n">
-        <v>207.8677163172776</v>
+        <v>216.0602934087022</v>
       </c>
       <c r="X37" t="n">
-        <v>147.0543733697237</v>
+        <v>155.2469504611483</v>
       </c>
       <c r="Y37" t="n">
-        <v>139.9293713327814</v>
+        <v>148.121948424206</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>304.0785596441672</v>
+        <v>312.2711367355918</v>
       </c>
       <c r="C38" t="n">
-        <v>286.6176097516941</v>
+        <v>294.8101868431187</v>
       </c>
       <c r="D38" t="n">
-        <v>276.0277596013696</v>
+        <v>284.2203366927941</v>
       </c>
       <c r="E38" t="n">
-        <v>303.2750880529484</v>
+        <v>311.467665144373</v>
       </c>
       <c r="F38" t="n">
-        <v>328.220763722398</v>
+        <v>336.4133408138226</v>
       </c>
       <c r="G38" t="n">
-        <v>332.26644363414</v>
+        <v>340.4590207255646</v>
       </c>
       <c r="H38" t="n">
-        <v>215.9524823680071</v>
+        <v>224.1450594594316</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>30.5324797688629</v>
+        <v>38.725056860287</v>
       </c>
       <c r="T38" t="n">
-        <v>125.2626881203067</v>
+        <v>133.4552652117313</v>
       </c>
       <c r="U38" t="n">
-        <v>172.339889939588</v>
+        <v>180.5324670310133</v>
       </c>
       <c r="V38" t="n">
-        <v>249.0969764508215</v>
+        <v>257.289553542246</v>
       </c>
       <c r="W38" t="n">
-        <v>270.5856866980996</v>
+        <v>278.7782637895242</v>
       </c>
       <c r="X38" t="n">
-        <v>291.0758186591556</v>
+        <v>299.2683957505802</v>
       </c>
       <c r="Y38" t="n">
-        <v>307.5826566367402</v>
+        <v>315.7752337281647</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247729</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>101.1766981626239</v>
+        <v>109.3692752540485</v>
       </c>
       <c r="C40" t="n">
-        <v>88.59153907931443</v>
+        <v>96.784116170739</v>
       </c>
       <c r="D40" t="n">
-        <v>69.96019099889895</v>
+        <v>85.63120984000373</v>
       </c>
       <c r="E40" t="n">
-        <v>67.77868062725577</v>
+        <v>75.97125771868033</v>
       </c>
       <c r="F40" t="n">
-        <v>66.76576600361784</v>
+        <v>74.95834309504241</v>
       </c>
       <c r="G40" t="n">
-        <v>87.37052623971482</v>
+        <v>95.56310333113939</v>
       </c>
       <c r="H40" t="n">
-        <v>66.09973289500738</v>
+        <v>74.29230998643195</v>
       </c>
       <c r="I40" t="n">
-        <v>77.60153158368489</v>
+        <v>25.88971548194926</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>18.46944774215849</v>
       </c>
       <c r="S40" t="n">
-        <v>111.1137433121285</v>
+        <v>119.3063204035531</v>
       </c>
       <c r="T40" t="n">
-        <v>140.8936672568558</v>
+        <v>149.0862443482804</v>
       </c>
       <c r="U40" t="n">
-        <v>207.5565561862994</v>
+        <v>215.749133277724</v>
       </c>
       <c r="V40" t="n">
-        <v>173.4823613045146</v>
+        <v>181.6749383959392</v>
       </c>
       <c r="W40" t="n">
-        <v>207.8677163172776</v>
+        <v>216.0602934087022</v>
       </c>
       <c r="X40" t="n">
-        <v>147.0543733697237</v>
+        <v>155.2469504611483</v>
       </c>
       <c r="Y40" t="n">
-        <v>139.9293713327814</v>
+        <v>148.121948424206</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687278</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>10.92960745128289</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>265.699093895157</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128487</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870213</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335018</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.0536962627597</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C44" t="n">
-        <v>41.80111365403737</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0028962199621</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E44" t="n">
-        <v>350.2502246715409</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F44" t="n">
-        <v>375.1959003409905</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.4010103302921</v>
       </c>
       <c r="I44" t="n">
-        <v>9.896784372205076</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>77.50761638745496</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
-        <v>172.2378247388993</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3150265581811</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>296.0721130694141</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>317.5608233166921</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>338.0509552777481</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.5577932553327</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.1518347812164</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C46" t="n">
-        <v>135.566675697907</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>116.9353276174915</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>114.7538172458483</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G46" t="n">
-        <v>98.78262605352991</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>113.0748695135999</v>
+        <v>97.77987829572815</v>
       </c>
       <c r="I46" t="n">
-        <v>64.67227500911721</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T46" t="n">
-        <v>187.8688038754483</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
-        <v>254.531692804892</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V46" t="n">
-        <v>220.4574979231071</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W46" t="n">
-        <v>254.8428529358701</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0295099883163</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9045079513739</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1364.208554989044</v>
+        <v>1627.383644777219</v>
       </c>
       <c r="C11" t="n">
-        <v>1042.695670996706</v>
+        <v>1627.383644777219</v>
       </c>
       <c r="D11" t="n">
-        <v>731.8796053380288</v>
+        <v>1316.567579118542</v>
       </c>
       <c r="E11" t="n">
-        <v>684.2689010822731</v>
+        <v>978.2289594683708</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822731</v>
+        <v>614.6926876268366</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>247.0698704199064</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5042,13 +5044,13 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3167.077706941466</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2677.383608767879</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2372.064586445838</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2046.048461132831</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="Y11" t="n">
-        <v>1703.358762105093</v>
+        <v>1966.533851893267</v>
       </c>
     </row>
     <row r="12">
@@ -5182,10 +5184,10 @@
         <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268786</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998337</v>
@@ -5200,10 +5202,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337116</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,7 +5220,7 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
         <v>2256.956805813347</v>
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1424.96340809348</v>
+        <v>1522.736669656748</v>
       </c>
       <c r="C14" t="n">
-        <v>1324.345848259345</v>
+        <v>1201.223785664409</v>
       </c>
       <c r="D14" t="n">
-        <v>1324.345848259345</v>
+        <v>890.4077200057318</v>
       </c>
       <c r="E14" t="n">
-        <v>1001.456714687832</v>
+        <v>890.4077200057318</v>
       </c>
       <c r="F14" t="n">
-        <v>653.3699289249564</v>
+        <v>684.2689010822735</v>
       </c>
       <c r="G14" t="n">
-        <v>301.1965977966846</v>
+        <v>316.6460838753431</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5297,31 +5299,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3278.214272162998</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3135.135643573952</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2944.50428587452</v>
+        <v>3119.52497783108</v>
       </c>
       <c r="V14" t="n">
-        <v>2676.340517557681</v>
+        <v>2835.911723435583</v>
       </c>
       <c r="W14" t="n">
-        <v>2386.470981314298</v>
+        <v>2530.592701113542</v>
       </c>
       <c r="X14" t="n">
-        <v>2075.90434207995</v>
+        <v>2204.576575800535</v>
       </c>
       <c r="Y14" t="n">
-        <v>1748.66412913087</v>
+        <v>1861.886876772797</v>
       </c>
     </row>
     <row r="15">
@@ -5346,16 +5348,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>651.3198472546859</v>
+        <v>759.4662498052954</v>
       </c>
       <c r="C16" t="n">
-        <v>545.2827833535106</v>
+        <v>637.9796998254617</v>
       </c>
       <c r="D16" t="n">
-        <v>458.0652629679065</v>
+        <v>535.3126933611991</v>
       </c>
       <c r="E16" t="n">
-        <v>373.0512884122451</v>
+        <v>434.8492327268791</v>
       </c>
       <c r="F16" t="n">
-        <v>289.0604599410664</v>
+        <v>335.4089181770419</v>
       </c>
       <c r="G16" t="n">
-        <v>184.256742342517</v>
+        <v>215.155714499834</v>
       </c>
       <c r="H16" t="n">
-        <v>100.9386745871064</v>
+        <v>116.3881606657649</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>408.6327023328083</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1319.303604226424</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1680.280629704937</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>1974.535556696696</v>
+        <v>2175.221948702826</v>
       </c>
       <c r="Q16" t="n">
-        <v>2052.145852849211</v>
+        <v>2299.337630107748</v>
       </c>
       <c r="R16" t="n">
-        <v>2025.214514633471</v>
+        <v>2256.956805813349</v>
       </c>
       <c r="S16" t="n">
-        <v>1896.427749487029</v>
+        <v>2112.720554588248</v>
       </c>
       <c r="T16" t="n">
-        <v>1737.560253083287</v>
+        <v>1938.403572105848</v>
       </c>
       <c r="U16" t="n">
-        <v>1511.356505235662</v>
+        <v>1696.750338179564</v>
       </c>
       <c r="V16" t="n">
-        <v>1319.571136056507</v>
+        <v>1489.515482921751</v>
       </c>
       <c r="W16" t="n">
-        <v>1093.053085046278</v>
+        <v>1247.547945832863</v>
       </c>
       <c r="X16" t="n">
-        <v>927.9626531749924</v>
+        <v>1067.008027882919</v>
       </c>
       <c r="Y16" t="n">
-        <v>770.0691930581939</v>
+        <v>893.665081687462</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1931.267727112002</v>
+        <v>1883.980124852698</v>
       </c>
       <c r="C17" t="n">
-        <v>1625.204329198322</v>
+        <v>1586.192057334396</v>
       </c>
       <c r="D17" t="n">
-        <v>1329.837749618303</v>
+        <v>1299.100808149756</v>
       </c>
       <c r="E17" t="n">
-        <v>1006.948616046791</v>
+        <v>984.4870049736214</v>
       </c>
       <c r="F17" t="n">
-        <v>658.861830283915</v>
+        <v>644.6755496061238</v>
       </c>
       <c r="G17" t="n">
-        <v>306.6884991556432</v>
+        <v>300.7775488732302</v>
       </c>
       <c r="H17" t="n">
-        <v>72.00401779114205</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="I17" t="n">
-        <v>72.00401779114205</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J17" t="n">
-        <v>260.8831487501676</v>
+        <v>263.2475288631327</v>
       </c>
       <c r="K17" t="n">
-        <v>594.7025224400143</v>
+        <v>598.3847179132272</v>
       </c>
       <c r="L17" t="n">
-        <v>1045.736735688423</v>
+        <v>1049.418931161636</v>
       </c>
       <c r="M17" t="n">
-        <v>1579.268640360348</v>
+        <v>1582.950835833561</v>
       </c>
       <c r="N17" t="n">
-        <v>2126.04745741913</v>
+        <v>2129.729652892343</v>
       </c>
       <c r="O17" t="n">
-        <v>2687.931254134133</v>
+        <v>2632.70212377168</v>
       </c>
       <c r="P17" t="n">
-        <v>3082.705620491311</v>
+        <v>3346.057211218626</v>
       </c>
       <c r="Q17" t="n">
-        <v>3541.1838230003</v>
+        <v>3594.343572974308</v>
       </c>
       <c r="R17" t="n">
-        <v>3600.200889557102</v>
+        <v>3718.419895205363</v>
       </c>
       <c r="S17" t="n">
-        <v>3552.809340110929</v>
+        <v>3679.303676154569</v>
       </c>
       <c r="T17" t="n">
-        <v>3409.730711521883</v>
+        <v>3544.500377960901</v>
       </c>
       <c r="U17" t="n">
-        <v>3409.730711521883</v>
+        <v>3362.144350656847</v>
       </c>
       <c r="V17" t="n">
-        <v>3182.644836576203</v>
+        <v>3102.255912735386</v>
       </c>
       <c r="W17" t="n">
-        <v>2892.775300332821</v>
+        <v>2820.661706887382</v>
       </c>
       <c r="X17" t="n">
-        <v>2582.208661098472</v>
+        <v>2518.370398048412</v>
       </c>
       <c r="Y17" t="n">
-        <v>2254.968448149392</v>
+        <v>2199.40551549471</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>947.0357558400673</v>
+        <v>949.4001359530324</v>
       </c>
       <c r="C18" t="n">
-        <v>772.5827265589403</v>
+        <v>774.9471066719054</v>
       </c>
       <c r="D18" t="n">
-        <v>623.648316897689</v>
+        <v>626.0126970106542</v>
       </c>
       <c r="E18" t="n">
-        <v>464.4108618922335</v>
+        <v>466.7752420051987</v>
       </c>
       <c r="F18" t="n">
-        <v>317.8763039191184</v>
+        <v>320.2406840320837</v>
       </c>
       <c r="G18" t="n">
-        <v>181.5132037517365</v>
+        <v>183.8775838647018</v>
       </c>
       <c r="H18" t="n">
-        <v>91.01130938960407</v>
+        <v>93.37568950256932</v>
       </c>
       <c r="I18" t="n">
-        <v>72.00401779114205</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J18" t="n">
-        <v>165.6812872817594</v>
+        <v>168.0456673947246</v>
       </c>
       <c r="K18" t="n">
-        <v>403.9454862621067</v>
+        <v>406.3098663750717</v>
       </c>
       <c r="L18" t="n">
-        <v>770.6436465747722</v>
+        <v>773.0080266877371</v>
       </c>
       <c r="M18" t="n">
-        <v>1217.919971797088</v>
+        <v>1220.284351910053</v>
       </c>
       <c r="N18" t="n">
-        <v>1691.443015351543</v>
+        <v>1693.807395464507</v>
       </c>
       <c r="O18" t="n">
-        <v>2102.404294769598</v>
+        <v>2104.768674882562</v>
       </c>
       <c r="P18" t="n">
-        <v>2412.903886245701</v>
+        <v>2415.268266358665</v>
       </c>
       <c r="Q18" t="n">
-        <v>2570.545443892301</v>
+        <v>2572.909824005265</v>
       </c>
       <c r="R18" t="n">
-        <v>2570.401090484815</v>
+        <v>2572.76547059778</v>
       </c>
       <c r="S18" t="n">
-        <v>2440.963203978295</v>
+        <v>2443.32758409126</v>
       </c>
       <c r="T18" t="n">
-        <v>2248.320203656151</v>
+        <v>2250.684583769116</v>
       </c>
       <c r="U18" t="n">
-        <v>2020.252356790566</v>
+        <v>2022.616736903531</v>
       </c>
       <c r="V18" t="n">
-        <v>1785.100248558824</v>
+        <v>1787.464628671789</v>
       </c>
       <c r="W18" t="n">
-        <v>1530.862891830622</v>
+        <v>1533.227271943587</v>
       </c>
       <c r="X18" t="n">
-        <v>1323.011391625089</v>
+        <v>1325.375771738054</v>
       </c>
       <c r="Y18" t="n">
-        <v>1115.251092860135</v>
+        <v>1117.6154729731</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>656.8117486136446</v>
+        <v>608.802797524295</v>
       </c>
       <c r="C19" t="n">
-        <v>550.7746847124693</v>
+        <v>511.041064018498</v>
       </c>
       <c r="D19" t="n">
-        <v>463.5571643268652</v>
+        <v>424.5448924629393</v>
       </c>
       <c r="E19" t="n">
-        <v>378.5431897712037</v>
+        <v>347.8062483026561</v>
       </c>
       <c r="F19" t="n">
-        <v>294.552361300025</v>
+        <v>272.0907502268556</v>
       </c>
       <c r="G19" t="n">
-        <v>189.7486437014756</v>
+        <v>175.5623630236844</v>
       </c>
       <c r="H19" t="n">
-        <v>106.430575946065</v>
+        <v>100.519625663652</v>
       </c>
       <c r="I19" t="n">
-        <v>72.00401779114205</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J19" t="n">
-        <v>117.1266502380776</v>
+        <v>119.4910303510428</v>
       </c>
       <c r="K19" t="n">
-        <v>321.1138331869541</v>
+        <v>323.4782132999192</v>
       </c>
       <c r="L19" t="n">
-        <v>637.6736316354503</v>
+        <v>640.0380117484153</v>
       </c>
       <c r="M19" t="n">
-        <v>981.8306772349994</v>
+        <v>984.1950573479644</v>
       </c>
       <c r="N19" t="n">
-        <v>1324.795505585383</v>
+        <v>1325.603434053829</v>
       </c>
       <c r="O19" t="n">
-        <v>1624.125104505797</v>
+        <v>1624.933032974242</v>
       </c>
       <c r="P19" t="n">
-        <v>1918.380031497556</v>
+        <v>1857.540533407902</v>
       </c>
       <c r="Q19" t="n">
-        <v>2057.63775420817</v>
+        <v>1935.150829560417</v>
       </c>
       <c r="R19" t="n">
-        <v>2030.70641599243</v>
+        <v>1916.494821740054</v>
       </c>
       <c r="S19" t="n">
-        <v>1901.919650845988</v>
+        <v>1795.983386988991</v>
       </c>
       <c r="T19" t="n">
-        <v>1743.052154442246</v>
+        <v>1645.391220980627</v>
       </c>
       <c r="U19" t="n">
-        <v>1516.848406594621</v>
+        <v>1427.46280352838</v>
       </c>
       <c r="V19" t="n">
-        <v>1325.063037415466</v>
+        <v>1243.952764744603</v>
       </c>
       <c r="W19" t="n">
-        <v>1098.544986405237</v>
+        <v>1025.710044129753</v>
       </c>
       <c r="X19" t="n">
-        <v>933.4545545339511</v>
+        <v>868.8949426538451</v>
       </c>
       <c r="Y19" t="n">
-        <v>775.5610944171526</v>
+        <v>719.2768129324248</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1931.267727112002</v>
+        <v>1883.980124852698</v>
       </c>
       <c r="C20" t="n">
-        <v>1625.204329198322</v>
+        <v>1586.192057334396</v>
       </c>
       <c r="D20" t="n">
-        <v>1329.837749618303</v>
+        <v>1299.100808149756</v>
       </c>
       <c r="E20" t="n">
-        <v>1006.948616046791</v>
+        <v>984.4870049736213</v>
       </c>
       <c r="F20" t="n">
-        <v>658.861830283915</v>
+        <v>644.6755496061237</v>
       </c>
       <c r="G20" t="n">
-        <v>306.6884991556432</v>
+        <v>300.7775488732302</v>
       </c>
       <c r="H20" t="n">
-        <v>72.00401779114205</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="I20" t="n">
-        <v>72.00401779114205</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J20" t="n">
-        <v>260.8831487501676</v>
+        <v>263.2475288631327</v>
       </c>
       <c r="K20" t="n">
-        <v>594.7025224400143</v>
+        <v>597.0669025529792</v>
       </c>
       <c r="L20" t="n">
-        <v>1045.736735688423</v>
+        <v>1048.101115801388</v>
       </c>
       <c r="M20" t="n">
-        <v>1579.268640360348</v>
+        <v>1581.633020473313</v>
       </c>
       <c r="N20" t="n">
-        <v>2126.04745741913</v>
+        <v>2194.788908566596</v>
       </c>
       <c r="O20" t="n">
-        <v>2629.019928298468</v>
+        <v>2697.761379445933</v>
       </c>
       <c r="P20" t="n">
-        <v>3227.838205570365</v>
+        <v>3411.116466892879</v>
       </c>
       <c r="Q20" t="n">
-        <v>3476.124567326047</v>
+        <v>3659.402828648561</v>
       </c>
       <c r="R20" t="n">
-        <v>3600.200889557102</v>
+        <v>3718.419895205363</v>
       </c>
       <c r="S20" t="n">
-        <v>3552.809340110929</v>
+        <v>3679.303676154569</v>
       </c>
       <c r="T20" t="n">
-        <v>3409.730711521883</v>
+        <v>3544.500377960901</v>
       </c>
       <c r="U20" t="n">
-        <v>3219.099353822451</v>
+        <v>3362.144350656847</v>
       </c>
       <c r="V20" t="n">
-        <v>2950.935585505612</v>
+        <v>3102.255912735386</v>
       </c>
       <c r="W20" t="n">
-        <v>2661.066049262229</v>
+        <v>2820.661706887382</v>
       </c>
       <c r="X20" t="n">
-        <v>2582.208661098472</v>
+        <v>2518.370398048412</v>
       </c>
       <c r="Y20" t="n">
-        <v>2254.968448149392</v>
+        <v>2199.40551549471</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>947.0357558400673</v>
+        <v>949.4001359530324</v>
       </c>
       <c r="C21" t="n">
-        <v>772.5827265589403</v>
+        <v>774.9471066719054</v>
       </c>
       <c r="D21" t="n">
-        <v>623.648316897689</v>
+        <v>626.0126970106542</v>
       </c>
       <c r="E21" t="n">
-        <v>464.4108618922335</v>
+        <v>466.7752420051987</v>
       </c>
       <c r="F21" t="n">
-        <v>317.8763039191184</v>
+        <v>320.2406840320837</v>
       </c>
       <c r="G21" t="n">
-        <v>181.5132037517365</v>
+        <v>183.8775838647018</v>
       </c>
       <c r="H21" t="n">
-        <v>91.01130938960407</v>
+        <v>93.37568950256932</v>
       </c>
       <c r="I21" t="n">
-        <v>72.00401779114205</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J21" t="n">
-        <v>165.6812872817594</v>
+        <v>168.0456673947246</v>
       </c>
       <c r="K21" t="n">
-        <v>403.9454862621067</v>
+        <v>406.3098663750717</v>
       </c>
       <c r="L21" t="n">
-        <v>770.6436465747722</v>
+        <v>773.008026687737</v>
       </c>
       <c r="M21" t="n">
-        <v>1217.919971797088</v>
+        <v>1220.284351910053</v>
       </c>
       <c r="N21" t="n">
-        <v>1691.443015351543</v>
+        <v>1693.807395464507</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.404294769598</v>
+        <v>2104.768674882562</v>
       </c>
       <c r="P21" t="n">
-        <v>2412.903886245701</v>
+        <v>2415.268266358665</v>
       </c>
       <c r="Q21" t="n">
-        <v>2570.545443892301</v>
+        <v>2572.909824005265</v>
       </c>
       <c r="R21" t="n">
-        <v>2570.401090484815</v>
+        <v>2572.76547059778</v>
       </c>
       <c r="S21" t="n">
-        <v>2440.963203978295</v>
+        <v>2443.32758409126</v>
       </c>
       <c r="T21" t="n">
-        <v>2248.320203656151</v>
+        <v>2250.684583769116</v>
       </c>
       <c r="U21" t="n">
-        <v>2020.252356790566</v>
+        <v>2022.616736903531</v>
       </c>
       <c r="V21" t="n">
-        <v>1785.100248558824</v>
+        <v>1787.464628671789</v>
       </c>
       <c r="W21" t="n">
-        <v>1530.862891830622</v>
+        <v>1533.227271943587</v>
       </c>
       <c r="X21" t="n">
-        <v>1323.011391625089</v>
+        <v>1325.375771738054</v>
       </c>
       <c r="Y21" t="n">
-        <v>1115.251092860135</v>
+        <v>1117.6154729731</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>656.8117486136446</v>
+        <v>608.802797524295</v>
       </c>
       <c r="C22" t="n">
-        <v>550.7746847124693</v>
+        <v>511.041064018498</v>
       </c>
       <c r="D22" t="n">
-        <v>463.5571643268652</v>
+        <v>432.0988740282721</v>
       </c>
       <c r="E22" t="n">
-        <v>378.5431897712037</v>
+        <v>355.3602298679889</v>
       </c>
       <c r="F22" t="n">
-        <v>294.552361300025</v>
+        <v>279.6447317921884</v>
       </c>
       <c r="G22" t="n">
-        <v>189.7486437014756</v>
+        <v>183.1163445890172</v>
       </c>
       <c r="H22" t="n">
-        <v>106.430575946065</v>
+        <v>100.519625663652</v>
       </c>
       <c r="I22" t="n">
-        <v>72.00401779114205</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J22" t="n">
-        <v>117.1266502380776</v>
+        <v>119.4910303510428</v>
       </c>
       <c r="K22" t="n">
-        <v>321.1138331869541</v>
+        <v>323.4782132999192</v>
       </c>
       <c r="L22" t="n">
-        <v>639.2300832799692</v>
+        <v>640.0380117484153</v>
       </c>
       <c r="M22" t="n">
-        <v>1045.034555437618</v>
+        <v>984.1950573479644</v>
       </c>
       <c r="N22" t="n">
-        <v>1386.442932143483</v>
+        <v>1325.603434053829</v>
       </c>
       <c r="O22" t="n">
-        <v>1685.772531063896</v>
+        <v>1624.933032974242</v>
       </c>
       <c r="P22" t="n">
-        <v>1918.380031497556</v>
+        <v>1857.540533407902</v>
       </c>
       <c r="Q22" t="n">
-        <v>2057.63775420817</v>
+        <v>1935.150829560417</v>
       </c>
       <c r="R22" t="n">
-        <v>2030.70641599243</v>
+        <v>1916.494821740054</v>
       </c>
       <c r="S22" t="n">
-        <v>1901.919650845988</v>
+        <v>1795.983386988991</v>
       </c>
       <c r="T22" t="n">
-        <v>1743.052154442246</v>
+        <v>1645.391220980627</v>
       </c>
       <c r="U22" t="n">
-        <v>1516.848406594621</v>
+        <v>1427.46280352838</v>
       </c>
       <c r="V22" t="n">
-        <v>1325.063037415466</v>
+        <v>1243.952764744603</v>
       </c>
       <c r="W22" t="n">
-        <v>1098.544986405237</v>
+        <v>1025.710044129753</v>
       </c>
       <c r="X22" t="n">
-        <v>933.4545545339511</v>
+        <v>868.8949426538451</v>
       </c>
       <c r="Y22" t="n">
-        <v>775.5610944171526</v>
+        <v>719.2768129324248</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1935.996487337933</v>
+        <v>1883.980124852698</v>
       </c>
       <c r="C23" t="n">
-        <v>1629.933089424253</v>
+        <v>1586.192057334396</v>
       </c>
       <c r="D23" t="n">
-        <v>1334.566509844234</v>
+        <v>1299.100808149756</v>
       </c>
       <c r="E23" t="n">
-        <v>1011.677376272721</v>
+        <v>984.4870049736213</v>
       </c>
       <c r="F23" t="n">
-        <v>663.5905905098456</v>
+        <v>644.6755496061237</v>
       </c>
       <c r="G23" t="n">
-        <v>311.4172593815736</v>
+        <v>300.7775488732302</v>
       </c>
       <c r="H23" t="n">
-        <v>76.73277801707248</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="I23" t="n">
-        <v>76.73277801707248</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J23" t="n">
-        <v>265.6119089760981</v>
+        <v>263.2475288631327</v>
       </c>
       <c r="K23" t="n">
-        <v>920.3352411113976</v>
+        <v>597.0669025529792</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.369454359807</v>
+        <v>1367.999652251404</v>
       </c>
       <c r="M23" t="n">
-        <v>1904.901359031731</v>
+        <v>1901.531556923328</v>
       </c>
       <c r="N23" t="n">
-        <v>2451.680176090514</v>
+        <v>2448.310373982111</v>
       </c>
       <c r="O23" t="n">
-        <v>3134.561106183961</v>
+        <v>2951.282844861448</v>
       </c>
       <c r="P23" t="n">
-        <v>3529.335472541139</v>
+        <v>3346.057211218626</v>
       </c>
       <c r="Q23" t="n">
-        <v>3777.621834296821</v>
+        <v>3594.343572974308</v>
       </c>
       <c r="R23" t="n">
-        <v>3836.638900853624</v>
+        <v>3718.419895205363</v>
       </c>
       <c r="S23" t="n">
-        <v>3789.247351407451</v>
+        <v>3679.303676154569</v>
       </c>
       <c r="T23" t="n">
-        <v>3646.168722818405</v>
+        <v>3544.500377960901</v>
       </c>
       <c r="U23" t="n">
-        <v>3455.537365118973</v>
+        <v>3362.144350656847</v>
       </c>
       <c r="V23" t="n">
-        <v>3187.373596802134</v>
+        <v>3102.255912735386</v>
       </c>
       <c r="W23" t="n">
-        <v>2897.504060558751</v>
+        <v>2820.661706887382</v>
       </c>
       <c r="X23" t="n">
-        <v>2586.937421324403</v>
+        <v>2518.370398048412</v>
       </c>
       <c r="Y23" t="n">
-        <v>2259.697208375323</v>
+        <v>2199.40551549471</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>951.7645160659972</v>
+        <v>949.4001359530324</v>
       </c>
       <c r="C24" t="n">
-        <v>777.3114867848702</v>
+        <v>774.9471066719054</v>
       </c>
       <c r="D24" t="n">
-        <v>628.3770771236191</v>
+        <v>626.0126970106542</v>
       </c>
       <c r="E24" t="n">
-        <v>469.1396221181635</v>
+        <v>466.7752420051987</v>
       </c>
       <c r="F24" t="n">
-        <v>322.6050641450486</v>
+        <v>320.2406840320837</v>
       </c>
       <c r="G24" t="n">
-        <v>186.2419639776674</v>
+        <v>183.8775838647018</v>
       </c>
       <c r="H24" t="n">
-        <v>95.74006961553488</v>
+        <v>93.37568950256932</v>
       </c>
       <c r="I24" t="n">
-        <v>76.73277801707248</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J24" t="n">
-        <v>170.4100475076896</v>
+        <v>168.0456673947246</v>
       </c>
       <c r="K24" t="n">
-        <v>408.674246488037</v>
+        <v>406.3098663750717</v>
       </c>
       <c r="L24" t="n">
-        <v>775.372406800702</v>
+        <v>773.0080266877371</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.648732023018</v>
+        <v>1220.284351910053</v>
       </c>
       <c r="N24" t="n">
-        <v>1696.171775577472</v>
+        <v>1693.807395464507</v>
       </c>
       <c r="O24" t="n">
-        <v>2107.133054995527</v>
+        <v>2104.768674882562</v>
       </c>
       <c r="P24" t="n">
-        <v>2417.63264647163</v>
+        <v>2415.268266358665</v>
       </c>
       <c r="Q24" t="n">
-        <v>2575.27420411823</v>
+        <v>2572.909824005265</v>
       </c>
       <c r="R24" t="n">
-        <v>2575.129850710745</v>
+        <v>2572.76547059778</v>
       </c>
       <c r="S24" t="n">
-        <v>2445.691964204225</v>
+        <v>2443.32758409126</v>
       </c>
       <c r="T24" t="n">
-        <v>2253.048963882081</v>
+        <v>2250.684583769116</v>
       </c>
       <c r="U24" t="n">
-        <v>2024.981117016496</v>
+        <v>2022.616736903531</v>
       </c>
       <c r="V24" t="n">
-        <v>1789.829008784754</v>
+        <v>1787.464628671789</v>
       </c>
       <c r="W24" t="n">
-        <v>1535.591652056552</v>
+        <v>1533.227271943587</v>
       </c>
       <c r="X24" t="n">
-        <v>1327.740151851019</v>
+        <v>1325.375771738054</v>
       </c>
       <c r="Y24" t="n">
-        <v>1119.979853086065</v>
+        <v>1117.6154729731</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>661.540508839575</v>
+        <v>601.2488159589622</v>
       </c>
       <c r="C25" t="n">
-        <v>555.5034449383996</v>
+        <v>503.4870824531652</v>
       </c>
       <c r="D25" t="n">
-        <v>468.2859245527956</v>
+        <v>424.5448924629393</v>
       </c>
       <c r="E25" t="n">
-        <v>383.2719499971341</v>
+        <v>347.8062483026561</v>
       </c>
       <c r="F25" t="n">
-        <v>299.2811215259554</v>
+        <v>272.0907502268556</v>
       </c>
       <c r="G25" t="n">
-        <v>194.477403927406</v>
+        <v>175.5623630236844</v>
       </c>
       <c r="H25" t="n">
-        <v>111.1593361719955</v>
+        <v>100.519625663652</v>
       </c>
       <c r="I25" t="n">
-        <v>76.73277801707248</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J25" t="n">
-        <v>121.8554104640081</v>
+        <v>119.4910303510428</v>
       </c>
       <c r="K25" t="n">
-        <v>325.8425934128845</v>
+        <v>323.4782132999192</v>
       </c>
       <c r="L25" t="n">
-        <v>642.4023918613807</v>
+        <v>640.0380117484153</v>
       </c>
       <c r="M25" t="n">
-        <v>988.1158891054486</v>
+        <v>984.1950573479644</v>
       </c>
       <c r="N25" t="n">
-        <v>1329.524265811313</v>
+        <v>1325.603434053829</v>
       </c>
       <c r="O25" t="n">
-        <v>1628.853864731727</v>
+        <v>1624.933032974242</v>
       </c>
       <c r="P25" t="n">
-        <v>1923.108791723486</v>
+        <v>1857.540533407902</v>
       </c>
       <c r="Q25" t="n">
-        <v>2062.3665144341</v>
+        <v>1935.150829560417</v>
       </c>
       <c r="R25" t="n">
-        <v>2035.43517621836</v>
+        <v>1908.940840174722</v>
       </c>
       <c r="S25" t="n">
-        <v>1906.648411071918</v>
+        <v>1788.429405423658</v>
       </c>
       <c r="T25" t="n">
-        <v>1747.780914668176</v>
+        <v>1637.837239415294</v>
       </c>
       <c r="U25" t="n">
-        <v>1521.577166820551</v>
+        <v>1419.908821963047</v>
       </c>
       <c r="V25" t="n">
-        <v>1329.791797641396</v>
+        <v>1236.39878317927</v>
       </c>
       <c r="W25" t="n">
-        <v>1103.273746631167</v>
+        <v>1018.15606256442</v>
       </c>
       <c r="X25" t="n">
-        <v>938.1833147598815</v>
+        <v>861.3409610885122</v>
       </c>
       <c r="Y25" t="n">
-        <v>780.289854643083</v>
+        <v>711.722831367092</v>
       </c>
     </row>
     <row r="26">
@@ -6200,64 +6202,64 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623799</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6266,10 +6268,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6348,7 +6350,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698011</v>
+        <v>2517.474464532007</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899675</v>
+        <v>2395.987914552174</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257051</v>
+        <v>2293.320908087911</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913853</v>
+        <v>2192.857447453591</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415483</v>
+        <v>2093.417132903754</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643405</v>
+        <v>1973.163929226546</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302717</v>
+        <v>1874.396375392477</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>1824.520331158895</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>1916.148348858238</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>2166.640917059521</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>2529.706100760423</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>2920.368531612379</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>3308.28229357065</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>3654.11727774347</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>3933.230163429536</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>4014.965020540059</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>3870.728769314959</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>3696.411786832558</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>3454.758552906275</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386256</v>
+        <v>3247.523697648462</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>3005.556160559574</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>2825.01624260963</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519675</v>
+        <v>2651.673296414173</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6442,73 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760677</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659143</v>
       </c>
       <c r="L29" t="n">
-        <v>1326.966459396847</v>
+        <v>1635.769886219269</v>
       </c>
       <c r="M29" t="n">
-        <v>2305.516762226676</v>
+        <v>2169.301790891194</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2716.080607949976</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3219.053078829314</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3613.827445186492</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697992</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899657</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257034</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302703</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973147</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982178</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167332</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572253</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277854</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052754</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386253</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297366</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519654</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,7 +6688,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6701,28 +6703,28 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2568.163811692541</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3036.687329075026</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309626</v>
@@ -6731,16 +6733,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
@@ -6780,10 +6782,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6822,7 +6824,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,7 +6858,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973144</v>
@@ -6880,25 +6882,25 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
         <v>908.2998821519666</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1831.963762367463</v>
+        <v>1883.980124852698</v>
       </c>
       <c r="C35" t="n">
-        <v>1542.451025244539</v>
+        <v>1586.192057334396</v>
       </c>
       <c r="D35" t="n">
-        <v>1263.635106455277</v>
+        <v>1299.100808149756</v>
       </c>
       <c r="E35" t="n">
-        <v>957.296633674521</v>
+        <v>984.4870049736214</v>
       </c>
       <c r="F35" t="n">
-        <v>625.7605087024017</v>
+        <v>644.6755496061238</v>
       </c>
       <c r="G35" t="n">
-        <v>290.1378383648865</v>
+        <v>300.7775488732301</v>
       </c>
       <c r="H35" t="n">
-        <v>72.00401779114202</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="I35" t="n">
-        <v>72.00401779114202</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J35" t="n">
-        <v>428.2887977705205</v>
+        <v>263.2475288631327</v>
       </c>
       <c r="K35" t="n">
-        <v>762.108171460367</v>
+        <v>597.0669025529792</v>
       </c>
       <c r="L35" t="n">
-        <v>1213.142384708776</v>
+        <v>1048.101115801388</v>
       </c>
       <c r="M35" t="n">
-        <v>1746.6742893807</v>
+        <v>1581.633020473313</v>
       </c>
       <c r="N35" t="n">
-        <v>2293.453106439483</v>
+        <v>2128.411837532095</v>
       </c>
       <c r="O35" t="n">
-        <v>2796.42557731882</v>
+        <v>2631.384308411432</v>
       </c>
       <c r="P35" t="n">
-        <v>3191.199943675998</v>
+        <v>3344.739395858378</v>
       </c>
       <c r="Q35" t="n">
-        <v>3476.124567326046</v>
+        <v>3659.402828648561</v>
       </c>
       <c r="R35" t="n">
-        <v>3600.200889557101</v>
+        <v>3718.419895205363</v>
       </c>
       <c r="S35" t="n">
-        <v>3569.360000901684</v>
+        <v>3679.303676154569</v>
       </c>
       <c r="T35" t="n">
-        <v>3442.832033103394</v>
+        <v>3544.500377960901</v>
       </c>
       <c r="U35" t="n">
-        <v>3268.751336194719</v>
+        <v>3362.144350656847</v>
       </c>
       <c r="V35" t="n">
-        <v>3017.138228668637</v>
+        <v>3102.255912735386</v>
       </c>
       <c r="W35" t="n">
-        <v>2743.819353216011</v>
+        <v>2820.661706887382</v>
       </c>
       <c r="X35" t="n">
-        <v>2449.803374772419</v>
+        <v>2518.370398048412</v>
       </c>
       <c r="Y35" t="n">
-        <v>2139.113822614096</v>
+        <v>2199.40551549471</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>947.0357558400672</v>
+        <v>949.4001359530324</v>
       </c>
       <c r="C36" t="n">
-        <v>772.5827265589402</v>
+        <v>774.9471066719054</v>
       </c>
       <c r="D36" t="n">
-        <v>623.6483168976889</v>
+        <v>626.0126970106542</v>
       </c>
       <c r="E36" t="n">
-        <v>464.4108618922334</v>
+        <v>466.7752420051987</v>
       </c>
       <c r="F36" t="n">
-        <v>317.8763039191184</v>
+        <v>320.2406840320837</v>
       </c>
       <c r="G36" t="n">
-        <v>181.5132037517365</v>
+        <v>183.8775838647018</v>
       </c>
       <c r="H36" t="n">
-        <v>91.01130938960404</v>
+        <v>93.37568950256932</v>
       </c>
       <c r="I36" t="n">
-        <v>72.00401779114202</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J36" t="n">
-        <v>165.6812872817594</v>
+        <v>168.0456673947246</v>
       </c>
       <c r="K36" t="n">
-        <v>403.9454862621065</v>
+        <v>406.3098663750717</v>
       </c>
       <c r="L36" t="n">
-        <v>770.6436465747719</v>
+        <v>773.0080266877371</v>
       </c>
       <c r="M36" t="n">
-        <v>1217.919971797088</v>
+        <v>1220.284351910053</v>
       </c>
       <c r="N36" t="n">
-        <v>1691.443015351542</v>
+        <v>1693.807395464507</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.404294769597</v>
+        <v>2104.768674882562</v>
       </c>
       <c r="P36" t="n">
-        <v>2412.9038862457</v>
+        <v>2415.268266358665</v>
       </c>
       <c r="Q36" t="n">
-        <v>2570.5454438923</v>
+        <v>2572.909824005265</v>
       </c>
       <c r="R36" t="n">
-        <v>2570.401090484815</v>
+        <v>2572.76547059778</v>
       </c>
       <c r="S36" t="n">
-        <v>2440.963203978295</v>
+        <v>2443.32758409126</v>
       </c>
       <c r="T36" t="n">
-        <v>2248.320203656151</v>
+        <v>2250.684583769116</v>
       </c>
       <c r="U36" t="n">
-        <v>2020.252356790566</v>
+        <v>2022.616736903531</v>
       </c>
       <c r="V36" t="n">
-        <v>1785.100248558824</v>
+        <v>1787.464628671789</v>
       </c>
       <c r="W36" t="n">
-        <v>1530.862891830622</v>
+        <v>1533.227271943587</v>
       </c>
       <c r="X36" t="n">
-        <v>1323.011391625089</v>
+        <v>1325.375771738054</v>
       </c>
       <c r="Y36" t="n">
-        <v>1115.251092860135</v>
+        <v>1117.6154729731</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.9163909697355</v>
+        <v>608.8027975242953</v>
       </c>
       <c r="C37" t="n">
-        <v>591.429987859317</v>
+        <v>511.0410640184983</v>
       </c>
       <c r="D37" t="n">
-        <v>520.7631282644695</v>
+        <v>432.0988740282726</v>
       </c>
       <c r="E37" t="n">
-        <v>452.2998144995647</v>
+        <v>355.3602298679894</v>
       </c>
       <c r="F37" t="n">
-        <v>384.8596468191427</v>
+        <v>279.644731792189</v>
       </c>
       <c r="G37" t="n">
-        <v>217.1568101938616</v>
+        <v>183.1163445890178</v>
       </c>
       <c r="H37" t="n">
-        <v>89.87991515530837</v>
+        <v>100.519625663652</v>
       </c>
       <c r="I37" t="n">
-        <v>72.00401779114202</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J37" t="n">
-        <v>117.1266502380776</v>
+        <v>119.4910303510428</v>
       </c>
       <c r="K37" t="n">
-        <v>321.113833186954</v>
+        <v>323.4782132999192</v>
       </c>
       <c r="L37" t="n">
-        <v>637.6736316354501</v>
+        <v>640.0380117484153</v>
       </c>
       <c r="M37" t="n">
-        <v>981.830677234999</v>
+        <v>984.1950573479644</v>
       </c>
       <c r="N37" t="n">
-        <v>1323.239053940864</v>
+        <v>1325.603434053829</v>
       </c>
       <c r="O37" t="n">
-        <v>1622.568652861277</v>
+        <v>1624.933032974242</v>
       </c>
       <c r="P37" t="n">
-        <v>1855.176153294937</v>
+        <v>1857.540533407902</v>
       </c>
       <c r="Q37" t="n">
-        <v>1932.786449447451</v>
+        <v>1935.150829560417</v>
       </c>
       <c r="R37" t="n">
-        <v>1922.405772022468</v>
+        <v>1916.494821740054</v>
       </c>
       <c r="S37" t="n">
-        <v>1810.169667666782</v>
+        <v>1795.983386988991</v>
       </c>
       <c r="T37" t="n">
-        <v>1667.852832053797</v>
+        <v>1645.391220980627</v>
       </c>
       <c r="U37" t="n">
-        <v>1458.199744996929</v>
+        <v>1427.46280352838</v>
       </c>
       <c r="V37" t="n">
-        <v>1282.96503660853</v>
+        <v>1243.952764744603</v>
       </c>
       <c r="W37" t="n">
-        <v>1072.997646389058</v>
+        <v>1025.710044129753</v>
       </c>
       <c r="X37" t="n">
-        <v>924.4578753085287</v>
+        <v>868.8949426538452</v>
       </c>
       <c r="Y37" t="n">
-        <v>783.1150759824869</v>
+        <v>719.2768129324251</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1831.963762367462</v>
+        <v>1883.980124852698</v>
       </c>
       <c r="C38" t="n">
-        <v>1542.451025244539</v>
+        <v>1586.192057334396</v>
       </c>
       <c r="D38" t="n">
-        <v>1263.635106455277</v>
+        <v>1299.100808149756</v>
       </c>
       <c r="E38" t="n">
-        <v>957.2966336745206</v>
+        <v>984.4870049736214</v>
       </c>
       <c r="F38" t="n">
-        <v>625.7605087024014</v>
+        <v>644.6755496061237</v>
       </c>
       <c r="G38" t="n">
-        <v>290.1378383648865</v>
+        <v>300.7775488732302</v>
       </c>
       <c r="H38" t="n">
-        <v>72.00401779114202</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="I38" t="n">
-        <v>72.00401779114202</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J38" t="n">
-        <v>260.8831487501675</v>
+        <v>263.2475288631327</v>
       </c>
       <c r="K38" t="n">
-        <v>594.702522440014</v>
+        <v>597.0669025529792</v>
       </c>
       <c r="L38" t="n">
-        <v>1249.780646603142</v>
+        <v>1048.101115801388</v>
       </c>
       <c r="M38" t="n">
-        <v>1783.312551275066</v>
+        <v>1581.633020473313</v>
       </c>
       <c r="N38" t="n">
-        <v>2330.091368333849</v>
+        <v>2501.94194453664</v>
       </c>
       <c r="O38" t="n">
-        <v>2833.063839213185</v>
+        <v>3004.914415415977</v>
       </c>
       <c r="P38" t="n">
-        <v>3227.838205570364</v>
+        <v>3411.116466892879</v>
       </c>
       <c r="Q38" t="n">
-        <v>3476.124567326046</v>
+        <v>3659.402828648561</v>
       </c>
       <c r="R38" t="n">
-        <v>3600.200889557101</v>
+        <v>3718.419895205363</v>
       </c>
       <c r="S38" t="n">
-        <v>3569.360000901684</v>
+        <v>3679.303676154569</v>
       </c>
       <c r="T38" t="n">
-        <v>3442.832033103394</v>
+        <v>3544.500377960901</v>
       </c>
       <c r="U38" t="n">
-        <v>3268.751336194719</v>
+        <v>3362.144350656847</v>
       </c>
       <c r="V38" t="n">
-        <v>3017.138228668637</v>
+        <v>3102.255912735386</v>
       </c>
       <c r="W38" t="n">
-        <v>2743.819353216011</v>
+        <v>2820.661706887382</v>
       </c>
       <c r="X38" t="n">
-        <v>2449.803374772419</v>
+        <v>2518.370398048412</v>
       </c>
       <c r="Y38" t="n">
-        <v>2139.113822614096</v>
+        <v>2199.40551549471</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>947.0357558400673</v>
+        <v>949.4001359530323</v>
       </c>
       <c r="C39" t="n">
-        <v>772.5827265589403</v>
+        <v>774.9471066719053</v>
       </c>
       <c r="D39" t="n">
-        <v>623.648316897689</v>
+        <v>626.0126970106541</v>
       </c>
       <c r="E39" t="n">
-        <v>464.4108618922335</v>
+        <v>466.7752420051985</v>
       </c>
       <c r="F39" t="n">
-        <v>317.8763039191184</v>
+        <v>320.2406840320835</v>
       </c>
       <c r="G39" t="n">
-        <v>181.5132037517365</v>
+        <v>183.8775838647016</v>
       </c>
       <c r="H39" t="n">
-        <v>91.01130938960407</v>
+        <v>93.37568950256917</v>
       </c>
       <c r="I39" t="n">
-        <v>72.00401779114202</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J39" t="n">
-        <v>165.6812872817594</v>
+        <v>168.0456673947246</v>
       </c>
       <c r="K39" t="n">
-        <v>403.9454862621065</v>
+        <v>406.3098663750717</v>
       </c>
       <c r="L39" t="n">
-        <v>770.6436465747719</v>
+        <v>773.0080266877371</v>
       </c>
       <c r="M39" t="n">
-        <v>1217.919971797088</v>
+        <v>1220.284351910053</v>
       </c>
       <c r="N39" t="n">
-        <v>1691.443015351542</v>
+        <v>1693.807395464507</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.404294769597</v>
+        <v>2104.768674882562</v>
       </c>
       <c r="P39" t="n">
-        <v>2412.9038862457</v>
+        <v>2415.268266358665</v>
       </c>
       <c r="Q39" t="n">
-        <v>2570.5454438923</v>
+        <v>2572.909824005265</v>
       </c>
       <c r="R39" t="n">
-        <v>2570.401090484815</v>
+        <v>2572.76547059778</v>
       </c>
       <c r="S39" t="n">
-        <v>2440.963203978295</v>
+        <v>2443.32758409126</v>
       </c>
       <c r="T39" t="n">
-        <v>2248.320203656151</v>
+        <v>2250.684583769116</v>
       </c>
       <c r="U39" t="n">
-        <v>2020.252356790566</v>
+        <v>2022.616736903531</v>
       </c>
       <c r="V39" t="n">
-        <v>1785.100248558824</v>
+        <v>1787.464628671789</v>
       </c>
       <c r="W39" t="n">
-        <v>1530.862891830622</v>
+        <v>1533.227271943587</v>
       </c>
       <c r="X39" t="n">
-        <v>1323.011391625089</v>
+        <v>1325.375771738054</v>
       </c>
       <c r="Y39" t="n">
-        <v>1115.251092860135</v>
+        <v>1117.6154729731</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>601.4666111522472</v>
+        <v>608.8027975242953</v>
       </c>
       <c r="C40" t="n">
-        <v>511.9802080418286</v>
+        <v>511.0410640184983</v>
       </c>
       <c r="D40" t="n">
-        <v>441.3133484469811</v>
+        <v>424.544892462939</v>
       </c>
       <c r="E40" t="n">
-        <v>372.8500346820763</v>
+        <v>347.8062483026558</v>
       </c>
       <c r="F40" t="n">
-        <v>305.4098670016542</v>
+        <v>272.0907502268554</v>
       </c>
       <c r="G40" t="n">
-        <v>217.1568101938615</v>
+        <v>175.5623630236843</v>
       </c>
       <c r="H40" t="n">
-        <v>150.3894032292076</v>
+        <v>100.519625663652</v>
       </c>
       <c r="I40" t="n">
-        <v>72.00401779114202</v>
+        <v>74.36839790410727</v>
       </c>
       <c r="J40" t="n">
-        <v>117.1266502380776</v>
+        <v>119.4910303510428</v>
       </c>
       <c r="K40" t="n">
-        <v>321.113833186954</v>
+        <v>323.4782132999192</v>
       </c>
       <c r="L40" t="n">
-        <v>637.6736316354501</v>
+        <v>640.0380117484153</v>
       </c>
       <c r="M40" t="n">
-        <v>981.830677234999</v>
+        <v>984.1950573479644</v>
       </c>
       <c r="N40" t="n">
-        <v>1323.239053940864</v>
+        <v>1325.603434053829</v>
       </c>
       <c r="O40" t="n">
-        <v>1622.568652861277</v>
+        <v>1624.933032974242</v>
       </c>
       <c r="P40" t="n">
-        <v>1855.176153294937</v>
+        <v>1857.540533407902</v>
       </c>
       <c r="Q40" t="n">
-        <v>1932.786449447451</v>
+        <v>1935.150829560417</v>
       </c>
       <c r="R40" t="n">
-        <v>1842.955992204979</v>
+        <v>1916.494821740054</v>
       </c>
       <c r="S40" t="n">
-        <v>1730.719887849294</v>
+        <v>1795.983386988991</v>
       </c>
       <c r="T40" t="n">
-        <v>1588.403052236308</v>
+        <v>1645.391220980627</v>
       </c>
       <c r="U40" t="n">
-        <v>1378.74996517944</v>
+        <v>1427.46280352838</v>
       </c>
       <c r="V40" t="n">
-        <v>1203.515256791042</v>
+        <v>1243.952764744603</v>
       </c>
       <c r="W40" t="n">
-        <v>993.5478665715694</v>
+        <v>1025.710044129753</v>
       </c>
       <c r="X40" t="n">
-        <v>845.0080954910404</v>
+        <v>868.8949426538452</v>
       </c>
       <c r="Y40" t="n">
-        <v>703.6652961649986</v>
+        <v>719.2768129324251</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1654.936470383459</v>
+        <v>1316.597850733289</v>
       </c>
       <c r="C41" t="n">
-        <v>1333.423586391121</v>
+        <v>995.0849667409504</v>
       </c>
       <c r="D41" t="n">
-        <v>1022.607520732444</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="E41" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="F41" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G41" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,7 +7411,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7418,7 +7420,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7439,22 +7441,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T41" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U41" t="n">
-        <v>3251.724778557791</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V41" t="n">
-        <v>2968.111524162293</v>
+        <v>2629.772904512123</v>
       </c>
       <c r="W41" t="n">
-        <v>2662.792501840252</v>
+        <v>2324.453882190082</v>
       </c>
       <c r="X41" t="n">
-        <v>2336.776376527246</v>
+        <v>1998.437756877076</v>
       </c>
       <c r="Y41" t="n">
-        <v>1994.086677499508</v>
+        <v>1655.748057849337</v>
       </c>
     </row>
     <row r="42">
@@ -7491,7 +7493,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
         <v>765.1517452158131</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254606</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F43" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G43" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7570,10 +7572,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M43" t="n">
         <v>1162.360316885667</v>
@@ -7600,19 +7602,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U43" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V43" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W43" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X43" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874611</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1177.771630834947</v>
+        <v>1627.38364477722</v>
       </c>
       <c r="C44" t="n">
-        <v>1135.548283709657</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D44" t="n">
-        <v>809.2827319723214</v>
+        <v>995.054695126204</v>
       </c>
       <c r="E44" t="n">
-        <v>455.4946262434922</v>
+        <v>656.716075476033</v>
       </c>
       <c r="F44" t="n">
-        <v>76.50886832329967</v>
+        <v>293.1798036344987</v>
       </c>
       <c r="G44" t="n">
-        <v>76.50886832329967</v>
+        <v>293.1798036344987</v>
       </c>
       <c r="H44" t="n">
-        <v>76.50886832329967</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
@@ -7661,7 +7663,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7673,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3247.315300005682</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T44" t="n">
-        <v>3073.337699259319</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U44" t="n">
-        <v>2851.80736940257</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V44" t="n">
-        <v>2552.744628928414</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W44" t="n">
-        <v>2231.976120527715</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X44" t="n">
-        <v>1890.510509136051</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="Y44" t="n">
-        <v>1532.371324029654</v>
+        <v>1966.533851893268</v>
       </c>
     </row>
     <row r="45">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>716.8005923286419</v>
+        <v>1785.73444130672</v>
       </c>
       <c r="C46" t="n">
-        <v>579.8645562701499</v>
+        <v>1664.247891326886</v>
       </c>
       <c r="D46" t="n">
-        <v>461.7480637272292</v>
+        <v>1561.580884862624</v>
       </c>
       <c r="E46" t="n">
-        <v>345.8351170142512</v>
+        <v>1461.117424228304</v>
       </c>
       <c r="F46" t="n">
-        <v>345.8351170142512</v>
+        <v>1361.677109678467</v>
       </c>
       <c r="G46" t="n">
-        <v>246.0546866571503</v>
+        <v>1241.42390600126</v>
       </c>
       <c r="H46" t="n">
-        <v>131.8376467444231</v>
+        <v>1142.656352167191</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>1092.780307933609</v>
       </c>
       <c r="J46" t="n">
-        <v>142.9980928258327</v>
+        <v>1184.408325632952</v>
       </c>
       <c r="K46" t="n">
-        <v>378.3486197214227</v>
+        <v>1434.900893834234</v>
       </c>
       <c r="L46" t="n">
-        <v>726.2717621166325</v>
+        <v>1797.966077535137</v>
       </c>
       <c r="M46" t="n">
-        <v>1101.792151662895</v>
+        <v>2188.628508387093</v>
       </c>
       <c r="N46" t="n">
-        <v>1474.563872315473</v>
+        <v>2576.542270345364</v>
       </c>
       <c r="O46" t="n">
-        <v>1805.2568151826</v>
+        <v>2922.377254518184</v>
       </c>
       <c r="P46" t="n">
-        <v>2069.227659562973</v>
+        <v>3201.49014020425</v>
       </c>
       <c r="Q46" t="n">
-        <v>2178.201299662202</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>2178.201299662202</v>
+        <v>3283.224997314773</v>
       </c>
       <c r="S46" t="n">
-        <v>2178.201299662202</v>
+        <v>3138.988746089673</v>
       </c>
       <c r="T46" t="n">
-        <v>1988.434831101143</v>
+        <v>2964.671763607272</v>
       </c>
       <c r="U46" t="n">
-        <v>1731.332111096201</v>
+        <v>2723.018529680989</v>
       </c>
       <c r="V46" t="n">
-        <v>1508.647769759729</v>
+        <v>2515.783674423175</v>
       </c>
       <c r="W46" t="n">
-        <v>1251.230746592184</v>
+        <v>2273.816137334288</v>
       </c>
       <c r="X46" t="n">
-        <v>1055.241342563582</v>
+        <v>2093.276219384344</v>
       </c>
       <c r="Y46" t="n">
-        <v>866.4489102894665</v>
+        <v>1919.933273188886</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>218.2111409464629</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>233.4357089658653</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>227.7528737187178</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>226.7777408199137</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>227.6097508526263</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>229.1091522321465</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>136.5653954824675</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>136.8385818314783</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>140.1317786452013</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>129.2864630672354</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>140.7160931202018</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>132.4654202195568</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9730561082392</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,16 +8379,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>133.8997196622861</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>137.8872852940284</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6717389884799</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>137.5201250048898</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,25 +8455,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>202.1809638361346</v>
+        <v>215.5422382052348</v>
       </c>
       <c r="L8" t="n">
-        <v>213.5488567752802</v>
+        <v>230.124699114848</v>
       </c>
       <c r="M8" t="n">
-        <v>205.6249188705004</v>
+        <v>224.0687372961622</v>
       </c>
       <c r="N8" t="n">
-        <v>204.2917325281876</v>
+        <v>223.0339912183951</v>
       </c>
       <c r="O8" t="n">
-        <v>206.3768508508745</v>
+        <v>224.0746342641524</v>
       </c>
       <c r="P8" t="n">
-        <v>210.9873633211545</v>
+        <v>226.0920120116969</v>
       </c>
       <c r="Q8" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>119.7207117878867</v>
+        <v>125.0304248509039</v>
       </c>
       <c r="K9" t="n">
-        <v>125.6774978810001</v>
+        <v>134.7526432243503</v>
       </c>
       <c r="L9" t="n">
-        <v>122.1984598562864</v>
+        <v>134.4011127129165</v>
       </c>
       <c r="M9" t="n">
-        <v>123.047446830095</v>
+        <v>137.2873671518305</v>
       </c>
       <c r="N9" t="n">
-        <v>111.7499598249992</v>
+        <v>126.3667684654457</v>
       </c>
       <c r="O9" t="n">
-        <v>124.673618687554</v>
+        <v>138.0451429682045</v>
       </c>
       <c r="P9" t="n">
-        <v>119.5899201578276</v>
+        <v>130.3217472474541</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3661252938572</v>
+        <v>137.54006749645</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8616,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>125.4955336943436</v>
+        <v>132.5004865276016</v>
       </c>
       <c r="M10" t="n">
-        <v>129.0262495446562</v>
+        <v>136.4119901404657</v>
       </c>
       <c r="N10" t="n">
-        <v>118.0213988638391</v>
+        <v>125.2315230562222</v>
       </c>
       <c r="O10" t="n">
-        <v>129.5301358016631</v>
+        <v>136.1898524857462</v>
       </c>
       <c r="P10" t="n">
-        <v>130.0899244982092</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9164,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.331126626513083</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>59.50638973299579</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9410,19 +9412,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>67.04754649949609</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>206.1049605199178</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>323.1298347979958</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>181.7257163778889</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>21.13839585591376</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>274.8351763665426</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>274.8351763665428</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>137.5908801368494</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>287.0017854473906</v>
+        <v>78.40458911672692</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10601,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>37.0083453478442</v>
+        <v>67.04754649949561</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,25 +10828,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>206.1049605199178</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>377.3031383884294</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>11.54311628254885</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707176</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.16194852731945</v>
+        <v>15.26698689583534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>287.8206362404711</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>68.8804513208822</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>203.3913796987501</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>292.4129137842186</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.9552334536694</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>155.8234783888954</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958342</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23786,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>188.7250441224377</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>40.66711443744811</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>229.3921585598856</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25634,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>193.0904278890265</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>15.07802795638531</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>291.7916327162494</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>379.2415802527325</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>262.9276189865996</v>
+        <v>23.23161743843588</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>113.7409026222104</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>35.56303680477744</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.25200726932646</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>158.088879930721</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>720266.34141179</v>
+        <v>720945.0869308622</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>714153.6951788318</v>
+        <v>719284.1249811917</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>615480.3082200525</v>
+        <v>602270.6361048252</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>640570.0655751674</v>
+        <v>658447.3398337407</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>640570.0655751674</v>
+        <v>658447.3398337407</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>662173.4118307546</v>
+        <v>658447.3398337407</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>669129.7380069393</v>
+        <v>669129.7380069392</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654721.2678367267</v>
+        <v>658447.3398337407</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654721.2678367267</v>
+        <v>658447.3398337407</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>602270.6361048254</v>
+        <v>602270.6361048253</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>581668.037586414</v>
+        <v>602270.6361048253</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491123</v>
+        <v>798794.4302491121</v>
       </c>
       <c r="C2" t="n">
-        <v>798795.576494335</v>
+        <v>798794.4302491121</v>
       </c>
       <c r="D2" t="n">
-        <v>798805.3568824569</v>
+        <v>798797.2048546759</v>
       </c>
       <c r="E2" t="n">
         <v>745417.7346425962</v>
       </c>
       <c r="F2" t="n">
-        <v>762036.3544004626</v>
+        <v>745417.7346425961</v>
       </c>
       <c r="G2" t="n">
-        <v>782712.6001918431</v>
+        <v>800515.7256176753</v>
       </c>
       <c r="H2" t="n">
-        <v>782712.6001918432</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="I2" t="n">
-        <v>800515.7256176772</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="J2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="N2" t="n">
         <v>800515.725617676</v>
@@ -26353,7 +26355,7 @@
         <v>745417.7346425962</v>
       </c>
       <c r="P2" t="n">
-        <v>719498.3365065297</v>
+        <v>745417.7346425963</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26368,37 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3345.426898312242</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26846.35036165576</v>
+        <v>7616.061055639675</v>
       </c>
       <c r="E3" t="n">
-        <v>1133211.97770721</v>
+        <v>1154203.527626922</v>
       </c>
       <c r="F3" t="n">
-        <v>12235.9929742974</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>18815.59729962713</v>
+        <v>45706.1659878402</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15718.45810049559</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>39780.77823330701</v>
+        <v>40959.53993862573</v>
       </c>
       <c r="K3" t="n">
-        <v>12235.99297429737</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>18790.05464743699</v>
       </c>
       <c r="M3" t="n">
-        <v>204052.0967539151</v>
+        <v>204863.1973516678</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>429908.1492159134</v>
+        <v>430898.5094426759</v>
       </c>
       <c r="D4" t="n">
-        <v>421594.9912398731</v>
+        <v>428508.9190710441</v>
       </c>
       <c r="E4" t="n">
-        <v>57605.61344858622</v>
+        <v>57605.61344858623</v>
       </c>
       <c r="F4" t="n">
-        <v>67257.13532134384</v>
+        <v>57605.61344858613</v>
       </c>
       <c r="G4" t="n">
-        <v>75944.38354587267</v>
+        <v>84856.50398636852</v>
       </c>
       <c r="H4" t="n">
-        <v>75944.38354587267</v>
+        <v>84856.50398636854</v>
       </c>
       <c r="I4" t="n">
-        <v>83424.47307987821</v>
+        <v>84856.50398636851</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646597</v>
+        <v>80755.36360646591</v>
       </c>
       <c r="K4" t="n">
+        <v>80755.36360646601</v>
+      </c>
+      <c r="L4" t="n">
         <v>80755.36360646592</v>
       </c>
-      <c r="L4" t="n">
-        <v>80755.36360646591</v>
-      </c>
       <c r="M4" t="n">
-        <v>86327.45298104583</v>
+        <v>84856.50398636854</v>
       </c>
       <c r="N4" t="n">
-        <v>86327.45298104585</v>
+        <v>84856.50398636854</v>
       </c>
       <c r="O4" t="n">
-        <v>57605.61344858626</v>
+        <v>57605.6134485862</v>
       </c>
       <c r="P4" t="n">
-        <v>42394.5825297605</v>
+        <v>57605.6134485862</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33707.69021107268</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34391.06348367693</v>
+        <v>33821.46667080751</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>79541.32793847701</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>83715.17297128557</v>
+        <v>86200.8436206381</v>
       </c>
       <c r="H5" t="n">
-        <v>83715.17297128557</v>
+        <v>86200.8436206381</v>
       </c>
       <c r="I5" t="n">
-        <v>87309.03074299271</v>
+        <v>86200.8436206381</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>85092.65649828348</v>
+        <v>86200.8436206381</v>
       </c>
       <c r="N5" t="n">
-        <v>85092.65649828348</v>
+        <v>86200.8436206381</v>
       </c>
       <c r="O5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="P5" t="n">
-        <v>76969.65870508651</v>
+        <v>78255.49332178176</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>334268.3208064365</v>
+        <v>334268.3208064362</v>
       </c>
       <c r="C6" t="n">
-        <v>331834.3101690367</v>
+        <v>334268.3208064362</v>
       </c>
       <c r="D6" t="n">
-        <v>315972.9517972512</v>
+        <v>328850.7580571846</v>
       </c>
       <c r="E6" t="n">
-        <v>-523655.3498349817</v>
+        <v>-544646.8997546941</v>
       </c>
       <c r="F6" t="n">
-        <v>603001.8981663443</v>
+        <v>609556.6278722284</v>
       </c>
       <c r="G6" t="n">
-        <v>604237.4463750578</v>
+        <v>583752.2120228285</v>
       </c>
       <c r="H6" t="n">
-        <v>623053.0436746851</v>
+        <v>629458.3780106698</v>
       </c>
       <c r="I6" t="n">
-        <v>614063.7636943107</v>
+        <v>629458.3780106695</v>
       </c>
       <c r="J6" t="n">
-        <v>590601.6421030969</v>
+        <v>589422.8803977787</v>
       </c>
       <c r="K6" t="n">
-        <v>618146.4273621066</v>
+        <v>630382.4203364043</v>
       </c>
       <c r="L6" t="n">
-        <v>630382.4203364043</v>
+        <v>611592.3656889676</v>
       </c>
       <c r="M6" t="n">
-        <v>425043.5193844319</v>
+        <v>424595.1806590011</v>
       </c>
       <c r="N6" t="n">
-        <v>629095.6161383467</v>
+        <v>629458.3780106694</v>
       </c>
       <c r="O6" t="n">
-        <v>609556.6278722282</v>
+        <v>609556.6278722283</v>
       </c>
       <c r="P6" t="n">
-        <v>600134.0952716827</v>
+        <v>609556.6278722284</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26697,37 @@
         <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="G2" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="H2" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="I2" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="N2" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P2" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>35.02126071912533</v>
+        <v>8.892966550803321</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,19 +26752,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26796,37 +26798,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="G4" t="n">
-        <v>900.0502223892755</v>
+        <v>929.6049738013409</v>
       </c>
       <c r="H4" t="n">
-        <v>900.0502223892755</v>
+        <v>929.6049738013409</v>
       </c>
       <c r="I4" t="n">
-        <v>959.159725213406</v>
+        <v>929.6049738013409</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>900.0502223892753</v>
+        <v>929.6049738013409</v>
       </c>
       <c r="N4" t="n">
-        <v>900.0502223892753</v>
+        <v>929.6049738013409</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26917,10 +26919,10 @@
         <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>15.29499121787175</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.48756830929636</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.68014540072082</v>
+        <v>23.48756830929631</v>
       </c>
       <c r="K2" t="n">
-        <v>15.29499121787172</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>23.48756830929624</v>
       </c>
       <c r="M2" t="n">
-        <v>31.68014540072086</v>
+        <v>23.48756830929627</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>31.347397825883</v>
+        <v>8.892966550803321</v>
       </c>
       <c r="E3" t="n">
-        <v>1054.755439874173</v>
+        <v>1080.883734042495</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>68.64876698698259</v>
+        <v>98.20351839904811</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>59.10950282413044</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>55.17673599520856</v>
+        <v>84.73148740727356</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>717.1152165829536</v>
+        <v>746.6699679950192</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27156,10 @@
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>15.29499121787175</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>23.48756830929636</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.68014540072082</v>
+        <v>23.48756830929631</v>
       </c>
       <c r="P2" t="n">
-        <v>15.29499121787172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>68.64876698698259</v>
+        <v>98.20351839904811</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27631,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,16 +27709,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27786,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,22 +27815,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27868,13 +27870,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.0329468943008</v>
+        <v>339.108671085864</v>
       </c>
       <c r="I8" t="n">
-        <v>205.0481221176458</v>
+        <v>209.0976138198538</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>8.915000229823599</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,19 +27897,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6.130034524643047</v>
       </c>
       <c r="R8" t="n">
-        <v>141.0252816852793</v>
+        <v>147.6233981015642</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8118405263978</v>
+        <v>208.2054023489532</v>
       </c>
       <c r="T8" t="n">
-        <v>222.4795457699687</v>
+        <v>222.9393512281469</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3427928582925</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2681884137393</v>
+        <v>137.3243888955353</v>
       </c>
       <c r="H9" t="n">
-        <v>111.5079271034444</v>
+        <v>112.0507054407902</v>
       </c>
       <c r="I9" t="n">
-        <v>86.80307722268741</v>
+        <v>88.73804995119049</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>95.48084390037957</v>
+        <v>98.97020363855661</v>
       </c>
       <c r="S9" t="n">
-        <v>170.2839726213331</v>
+        <v>171.32787192136</v>
       </c>
       <c r="T9" t="n">
-        <v>199.8611009721718</v>
+        <v>200.0876283527444</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9364262421938</v>
+        <v>225.940123642312</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,19 +28025,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9749428613999</v>
       </c>
       <c r="H10" t="n">
-        <v>161.6656840978772</v>
+        <v>162.0845934699529</v>
       </c>
       <c r="I10" t="n">
-        <v>153.551289182031</v>
+        <v>154.9682137247983</v>
       </c>
       <c r="J10" t="n">
-        <v>88.89425643449839</v>
+        <v>92.22539977461381</v>
       </c>
       <c r="K10" t="n">
-        <v>14.93225064571201</v>
+        <v>20.40634244032111</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,22 +28052,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.7818993090099986</v>
       </c>
       <c r="Q10" t="n">
-        <v>80.87383288310646</v>
+        <v>84.81920530252309</v>
       </c>
       <c r="R10" t="n">
-        <v>174.4537986637794</v>
+        <v>176.5723321548699</v>
       </c>
       <c r="S10" t="n">
-        <v>222.9160118599466</v>
+        <v>223.737125629138</v>
       </c>
       <c r="T10" t="n">
-        <v>227.6757534850358</v>
+        <v>227.8770698499392</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3181546384695</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="C14" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="D14" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="E14" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="F14" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="G14" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="H14" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="T14" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="U14" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="V14" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="W14" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="X14" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="Y14" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="C16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="D16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="E16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="F16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="G16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="H16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="I16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="N16" t="n">
-        <v>1.572173378302239</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="O16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="P16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859534</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="R16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="S16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="T16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="U16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="V16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="W16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="X16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.27012783646432</v>
+        <v>46.97513661859242</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="C17" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="D17" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="E17" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="F17" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="G17" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="H17" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="T17" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="U17" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="V17" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="W17" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="X17" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="Y17" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="C19" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="D19" t="n">
-        <v>62.27012783646432</v>
+        <v>62.98426317820925</v>
       </c>
       <c r="E19" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="F19" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="G19" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="H19" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="I19" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28755,40 +28757,40 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.572173378302011</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>62.27012783646432</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>62.27012783646432</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="S19" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="T19" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="U19" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="V19" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="W19" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="X19" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="C20" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="D20" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="E20" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="F20" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="G20" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="H20" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="T20" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="U20" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="V20" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="W20" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="X20" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="Y20" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="C22" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="D22" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="E22" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="F22" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="G22" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="H22" t="n">
-        <v>62.27012783646432</v>
+        <v>62.98426317820926</v>
       </c>
       <c r="I22" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28986,10 +28988,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.572173378301954</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>62.27012783646432</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29001,31 +29003,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>62.27012783646432</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="S22" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="T22" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="U22" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="V22" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="W22" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="X22" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="C23" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="D23" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="E23" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="F23" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="G23" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="H23" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="T23" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="U23" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="V23" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="W23" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="X23" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="Y23" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="C25" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="D25" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="E25" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="F25" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="G25" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="H25" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="I25" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29226,7 +29228,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.572173378301841</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,34 +29237,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>62.27012783646432</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>62.27012783646432</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>62.27012783646432</v>
+        <v>62.98426317820923</v>
       </c>
       <c r="S25" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="T25" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="U25" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="V25" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="W25" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="X25" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.27012783646432</v>
+        <v>70.46270492788878</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859269</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="C35" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="D35" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="E35" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="F35" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="G35" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="H35" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="T35" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="U35" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="V35" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="W35" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="X35" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="Y35" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="C37" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="D37" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="E37" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="F37" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="H37" t="n">
-        <v>18.75088882615307</v>
+        <v>62.98426317820858</v>
       </c>
       <c r="I37" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="S37" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="T37" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="U37" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="V37" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="W37" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="X37" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="Y37" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="C38" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="D38" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="E38" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="F38" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="G38" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="H38" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="T38" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="U38" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="V38" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="W38" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="X38" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="Y38" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="C40" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="D40" t="n">
-        <v>78.6552820193134</v>
+        <v>62.98426317820862</v>
       </c>
       <c r="E40" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="F40" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="G40" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="H40" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="I40" t="n">
-        <v>18.7508888261532</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="S40" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="T40" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="U40" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="V40" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="W40" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="X40" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
       <c r="Y40" t="n">
-        <v>78.6552820193134</v>
+        <v>70.46270492788884</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C44" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D44" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E44" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F44" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G44" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H44" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I44" t="n">
-        <v>31.68014540072087</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T44" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U44" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V44" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W44" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X44" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.68014540072087</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.48846056906043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.03575061929971182</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4418552214663</v>
+        <v>0.3661310299031737</v>
       </c>
       <c r="I8" t="n">
-        <v>5.427767452760119</v>
+        <v>1.378275750552141</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>3.034289124788919</v>
       </c>
       <c r="K8" t="n">
-        <v>17.90888720884599</v>
+        <v>4.54761283974572</v>
       </c>
       <c r="L8" t="n">
-        <v>22.21755819470702</v>
+        <v>5.641715855139277</v>
       </c>
       <c r="M8" t="n">
-        <v>24.72131435677232</v>
+        <v>6.277495931110527</v>
       </c>
       <c r="N8" t="n">
-        <v>25.12133106840334</v>
+        <v>6.379072378195834</v>
       </c>
       <c r="O8" t="n">
-        <v>23.72136057081217</v>
+        <v>6.023577157534324</v>
       </c>
       <c r="P8" t="n">
-        <v>20.24563243411506</v>
+        <v>5.140983743572687</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.20362680796963</v>
+        <v>3.860664689901757</v>
       </c>
       <c r="R8" t="n">
-        <v>8.843836255870377</v>
+        <v>2.245719839585524</v>
       </c>
       <c r="S8" t="n">
-        <v>3.208229059847512</v>
+        <v>0.8146672372921838</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.1564983359844886</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.002860049543976945</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.0191282676753128</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.1847387957063105</v>
       </c>
       <c r="I9" t="n">
-        <v>2.593555628727678</v>
+        <v>0.6585829002245857</v>
       </c>
       <c r="J9" t="n">
-        <v>7.116914878779989</v>
+        <v>1.807201815762777</v>
       </c>
       <c r="K9" t="n">
-        <v>12.16394109335884</v>
+        <v>3.088795750008735</v>
       </c>
       <c r="L9" t="n">
-        <v>16.35591992358773</v>
+        <v>4.153267066957721</v>
       </c>
       <c r="M9" t="n">
-        <v>19.0865870919233</v>
+        <v>4.846666770187809</v>
       </c>
       <c r="N9" t="n">
-        <v>19.59175225833408</v>
+        <v>4.974943617887605</v>
       </c>
       <c r="O9" t="n">
-        <v>17.92262575689049</v>
+        <v>4.551101476239884</v>
       </c>
       <c r="P9" t="n">
-        <v>14.38448725650263</v>
+        <v>3.65266016687618</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.615648792164375</v>
+        <v>2.441706589571508</v>
       </c>
       <c r="R9" t="n">
-        <v>4.676990252263569</v>
+        <v>1.187630514086527</v>
       </c>
       <c r="S9" t="n">
-        <v>1.399198482504676</v>
+        <v>0.3552991824778494</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.07710034207724763</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.001258438662849527</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.01603649705882566</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.14257903748665</v>
       </c>
       <c r="I10" t="n">
-        <v>1.899185745227321</v>
+        <v>0.4822612024599572</v>
       </c>
       <c r="J10" t="n">
-        <v>4.464923682174387</v>
+        <v>1.133780342058974</v>
       </c>
       <c r="K10" t="n">
-        <v>7.337241180170845</v>
+        <v>1.863149385561744</v>
       </c>
       <c r="L10" t="n">
-        <v>9.389142586894682</v>
+        <v>2.384189753636681</v>
       </c>
       <c r="M10" t="n">
-        <v>9.899534402948818</v>
+        <v>2.513793807139371</v>
       </c>
       <c r="N10" t="n">
-        <v>9.664145601394049</v>
+        <v>2.454021409011023</v>
       </c>
       <c r="O10" t="n">
-        <v>8.926402650179684</v>
+        <v>2.266685966096559</v>
       </c>
       <c r="P10" t="n">
-        <v>7.638079550938412</v>
+        <v>1.939541426096513</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.288210368587925</v>
+        <v>1.342837949171301</v>
       </c>
       <c r="R10" t="n">
-        <v>2.839592713390063</v>
+        <v>0.7210592222995608</v>
       </c>
       <c r="S10" t="n">
-        <v>1.100586177025627</v>
+        <v>0.2794724078342616</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.06851957834225507</v>
       </c>
       <c r="U10" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.0008747180213904915</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32084,7 +32086,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33743,7 +33745,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34211,10 +34213,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35732,7 +35734,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>92.55355323165864</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
-        <v>346.4291195458423</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O16" t="n">
-        <v>364.6232580591041</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P16" t="n">
-        <v>297.2271989815748</v>
+        <v>281.9322077637058</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>338.5224131819136</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>567.5593906212151</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>346.4291195458422</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>297.2271989815748</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>140.664366374358</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>619.3493819124076</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>604.8669467392898</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>321.3295455485002</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>409.9035072299482</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>140.664366374358</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>778.719949190328</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7787172661083</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>349.2055527717857</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>297.2271989815748</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.664366374358</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>358.3296824113143</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>827.137011779454</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36674,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,7 +36764,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L29" t="n">
-        <v>730.425290758875</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>388.385184940569</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165894</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629123</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887909</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120766</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861328</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412325</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637032</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564864</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37078,13 +37080,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>795.0547863356097</v>
+        <v>586.457590004946</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37148,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37238,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37321,13 +37323,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>287.8026501515637</v>
+        <v>317.8418513032151</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37546,25 +37548,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>661.69507491225</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>929.6049738013409</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>410.3051025019207</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37947,7 +37949,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -37956,7 +37958,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>77.2585620137871</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
-        <v>237.7278049450404</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>351.437517570919</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>379.3135247942047</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>376.537091568261</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>334.0332756233606</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>266.6372165458313</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.0743839386145</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
